--- a/DS-ALGO-INTERVIEW/FINAL450.xlsx
+++ b/DS-ALGO-INTERVIEW/FINAL450.xlsx
@@ -1862,7 +1862,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3742,7 +3742,7 @@
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C179" s="4" t="s">

--- a/DS-ALGO-INTERVIEW/FINAL450.xlsx
+++ b/DS-ALGO-INTERVIEW/FINAL450.xlsx
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3397,7 +3397,7 @@
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -3474,7 +3474,7 @@
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -3529,7 +3529,7 @@
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -3573,7 +3573,7 @@
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="11" t="s">
         <v>158</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -3951,7 +3951,7 @@
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -4017,7 +4017,7 @@
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C204" s="4" t="s">
@@ -4115,7 +4115,7 @@
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="11" t="s">
         <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
@@ -4137,7 +4137,7 @@
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -4541,7 +4541,7 @@
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="11" t="s">
         <v>247</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -4552,7 +4552,7 @@
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" s="11" t="s">
         <v>248</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -4574,7 +4574,7 @@
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="11" t="s">
         <v>250</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -4975,7 +4975,7 @@
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="11" t="s">
         <v>286</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -4986,7 +4986,7 @@
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="11" t="s">
         <v>287</v>
       </c>
       <c r="C297" s="4" t="s">
@@ -4997,7 +4997,7 @@
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="11" t="s">
         <v>288</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -5008,7 +5008,7 @@
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" s="11" t="s">
         <v>289</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -5030,7 +5030,7 @@
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -5041,7 +5041,7 @@
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B302" s="11" t="s">
         <v>292</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -5085,7 +5085,7 @@
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -5096,7 +5096,7 @@
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="11" t="s">
         <v>297</v>
       </c>
       <c r="C307" s="4" t="s">
@@ -5184,7 +5184,7 @@
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B315" s="11" t="s">
         <v>305</v>
       </c>
       <c r="C315" s="4" t="s">
@@ -5195,7 +5195,7 @@
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B316" s="11" t="s">
         <v>306</v>
       </c>
       <c r="C316" s="4" t="s">
@@ -5217,7 +5217,7 @@
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B318" s="11" t="s">
         <v>308</v>
       </c>
       <c r="C318" s="4" t="s">
@@ -5261,7 +5261,7 @@
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="B322" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C322" s="4" t="s">
@@ -5371,7 +5371,7 @@
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B332" s="6" t="s">
+      <c r="B332" s="11" t="s">
         <v>322</v>
       </c>
       <c r="C332" s="4" t="s">

--- a/DS-ALGO-INTERVIEW/FINAL450.xlsx
+++ b/DS-ALGO-INTERVIEW/FINAL450.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="780" yWindow="945" windowWidth="20730" windowHeight="11760"/>
@@ -10,17 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -159,9 +148,6 @@
     <t>Spiral traversal on a Matrix</t>
   </si>
   <si>
-    <t>Search an element in a matriix</t>
-  </si>
-  <si>
     <t>Find median in a row wise sorted matrix</t>
   </si>
   <si>
@@ -1429,6 +1415,9 @@
   </si>
   <si>
     <t>https://leetcode.com/discuss/interview-question/344650/Amazon-Online-Assessment-Questions/</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix (see TUF video for best answer)</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1508,6 +1497,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,7 +1526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1550,6 +1551,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1562,14 +1570,6 @@
       <color rgb="FF66FF66"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1890,12 +1890,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1929,7 +1929,7 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1940,7 +1940,7 @@
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1951,7 +1951,7 @@
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1962,7 +1962,7 @@
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1973,7 +1973,7 @@
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1984,7 +1984,7 @@
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1995,7 +1995,7 @@
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2006,7 +2006,7 @@
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2017,7 +2017,7 @@
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2028,7 +2028,7 @@
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2039,7 +2039,7 @@
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2050,7 +2050,7 @@
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2061,7 +2061,7 @@
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2072,7 +2072,7 @@
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2083,7 +2083,7 @@
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2094,7 +2094,7 @@
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2105,7 +2105,7 @@
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2116,7 +2116,7 @@
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2127,7 +2127,7 @@
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2138,7 +2138,7 @@
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2182,7 +2182,7 @@
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2204,7 +2204,7 @@
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2215,7 +2215,7 @@
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2226,7 +2226,7 @@
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2327,7 +2327,7 @@
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2338,8 +2338,8 @@
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>44</v>
+      <c r="B45" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -2350,7 +2350,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
@@ -2361,7 +2361,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -2372,7 +2372,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -2383,7 +2383,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -2394,7 +2394,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
@@ -2405,7 +2405,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
@@ -2416,7 +2416,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
@@ -2427,7 +2427,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -2440,10 +2440,10 @@
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>4</v>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -2528,10 +2528,10 @@
     </row>
     <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="68" spans="1:3" ht="21">
       <c r="A68" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
@@ -2583,10 +2583,10 @@
     </row>
     <row r="69" spans="1:3" ht="21">
       <c r="A69" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
@@ -2594,10 +2594,10 @@
     </row>
     <row r="70" spans="1:3" ht="21">
       <c r="A70" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>4</v>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="71" spans="1:3" ht="21">
       <c r="A71" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="72" spans="1:3" ht="21">
       <c r="A72" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>4</v>
@@ -2627,10 +2627,10 @@
     </row>
     <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>4</v>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>4</v>
@@ -2649,10 +2649,10 @@
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
@@ -2660,10 +2660,10 @@
     </row>
     <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>4</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -2704,10 +2704,10 @@
     </row>
     <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>4</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>4</v>
@@ -2726,10 +2726,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>4</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>4</v>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>4</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>4</v>
@@ -2814,10 +2814,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>4</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>4</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>4</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -2880,10 +2880,10 @@
     </row>
     <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>4</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="97" spans="1:3" ht="21">
       <c r="A97" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>4</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="98" spans="1:3" ht="21">
       <c r="A98" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>4</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>4</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>4</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>4</v>
@@ -2951,10 +2951,10 @@
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>4</v>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>4</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>4</v>
@@ -2984,10 +2984,10 @@
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>4</v>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>4</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>4</v>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>4</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>4</v>
@@ -3039,10 +3039,10 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>4</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>4</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>4</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>4</v>
@@ -3083,10 +3083,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>4</v>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>4</v>
@@ -3105,10 +3105,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>4</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>4</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>4</v>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>4</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>4</v>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>4</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>4</v>
@@ -3182,10 +3182,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>4</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>4</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>4</v>
@@ -3215,10 +3215,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -3226,10 +3226,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>4</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>4</v>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>4</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>4</v>
@@ -3270,10 +3270,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>4</v>
@@ -3281,10 +3281,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>131</v>
+        <v>96</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>4</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>4</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>4</v>
@@ -3318,10 +3318,10 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>4</v>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>4</v>
@@ -3340,10 +3340,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>4</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>4</v>
@@ -3362,10 +3362,10 @@
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>4</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>4</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>4</v>
@@ -3406,10 +3406,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>4</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>4</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>4</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>146</v>
+        <v>133</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>4</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>4</v>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>4</v>
@@ -3472,10 +3472,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>4</v>
@@ -3483,10 +3483,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>4</v>
@@ -3494,10 +3494,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>4</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>152</v>
+        <v>133</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>4</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>4</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>4</v>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>155</v>
+        <v>133</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>4</v>
@@ -3549,10 +3549,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>4</v>
@@ -3560,10 +3560,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>4</v>
@@ -3571,10 +3571,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>4</v>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>4</v>
@@ -3593,10 +3593,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>160</v>
+        <v>133</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>4</v>
@@ -3604,10 +3604,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>161</v>
+        <v>133</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>4</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>162</v>
+        <v>133</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>4</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>163</v>
+        <v>133</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>4</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>4</v>
@@ -3648,10 +3648,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>165</v>
+        <v>133</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>4</v>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>4</v>
@@ -3681,10 +3681,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>168</v>
+        <v>133</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>4</v>
@@ -3692,10 +3692,10 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>169</v>
+        <v>133</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>4</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>4</v>
@@ -3718,10 +3718,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>4</v>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>4</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>4</v>
@@ -3751,10 +3751,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>4</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>4</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>4</v>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>4</v>
@@ -3795,10 +3795,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>4</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>4</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>4</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>4</v>
@@ -3839,10 +3839,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>4</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>4</v>
@@ -3861,10 +3861,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>4</v>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>4</v>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>4</v>
@@ -3894,10 +3894,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>4</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>189</v>
+        <v>170</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>4</v>
@@ -3916,10 +3916,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>4</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>191</v>
+        <v>170</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>4</v>
@@ -3938,10 +3938,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>4</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>4</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>194</v>
+        <v>170</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>4</v>
@@ -3971,10 +3971,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>195</v>
+        <v>170</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>4</v>
@@ -3982,10 +3982,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>196</v>
+        <v>170</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>4</v>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>197</v>
+        <v>170</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>4</v>
@@ -4004,10 +4004,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>4</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>4</v>
@@ -4026,10 +4026,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
@@ -4037,10 +4037,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>4</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>202</v>
+        <v>170</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>4</v>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>4</v>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>4</v>
@@ -4081,10 +4081,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>206</v>
+        <v>170</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>4</v>
@@ -4113,10 +4113,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
@@ -4146,10 +4146,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>4</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>4</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>4</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>219</v>
+        <v>206</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>4</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4278,10 +4278,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>223</v>
+        <v>206</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4322,10 +4322,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>4</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
@@ -4374,10 +4374,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
@@ -4429,10 +4429,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
@@ -4451,10 +4451,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
@@ -4462,10 +4462,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -4561,10 +4561,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4616,10 +4616,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4671,10 +4671,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4704,10 +4704,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4715,10 +4715,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4726,10 +4726,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>4</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4767,10 +4767,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -4778,10 +4778,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -4789,10 +4789,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -4800,10 +4800,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -4811,10 +4811,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -4822,10 +4822,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>4</v>
@@ -4844,10 +4844,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>4</v>
@@ -4855,10 +4855,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -4877,10 +4877,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -4888,10 +4888,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -4899,10 +4899,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>279</v>
+        <v>264</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -4921,10 +4921,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -4943,10 +4943,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="B296" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>4</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>4</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>298</v>
+        <v>284</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>299</v>
+        <v>284</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>300</v>
+        <v>284</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>4</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>302</v>
+        <v>284</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>303</v>
+        <v>284</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>307</v>
+        <v>284</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>4</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>313</v>
+        <v>284</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>314</v>
+        <v>284</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>4</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>323</v>
+        <v>284</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>322</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>4</v>
@@ -5399,10 +5399,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
@@ -5410,10 +5410,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
@@ -5421,10 +5421,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
@@ -5432,10 +5432,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
@@ -5443,10 +5443,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
@@ -5454,10 +5454,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
@@ -5465,10 +5465,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5487,10 +5487,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
@@ -5498,10 +5498,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
@@ -5520,10 +5520,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>336</v>
+        <v>323</v>
+      </c>
+      <c r="B347" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
@@ -5531,10 +5531,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>337</v>
+        <v>323</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
@@ -5564,10 +5564,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
@@ -5575,10 +5575,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
@@ -5586,10 +5586,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>4</v>
@@ -5605,10 +5605,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>4</v>
@@ -5616,10 +5616,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>4</v>
@@ -5627,10 +5627,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="B358" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
@@ -5638,10 +5638,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
@@ -5649,10 +5649,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -5660,10 +5660,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
@@ -5693,10 +5693,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
@@ -5704,10 +5704,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
@@ -5715,10 +5715,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>355</v>
+        <v>342</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -5737,10 +5737,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -5748,10 +5748,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -5781,10 +5781,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -5803,10 +5803,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -5825,10 +5825,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -5836,10 +5836,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -5858,10 +5858,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -5869,10 +5869,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -5880,10 +5880,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -5891,10 +5891,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -5913,10 +5913,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -5935,10 +5935,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -5946,10 +5946,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -5957,10 +5957,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -5979,10 +5979,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -6001,10 +6001,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -6012,10 +6012,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6023,10 +6023,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6034,10 +6034,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6056,10 +6056,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6067,10 +6067,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6078,10 +6078,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6108,10 +6108,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6119,10 +6119,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6141,10 +6141,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6152,10 +6152,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B410" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6193,10 +6193,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B412" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6204,10 +6204,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B413" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6215,10 +6215,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6226,10 +6226,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6237,10 +6237,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B416" s="6" t="s">
-        <v>400</v>
+        <v>392</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>273</v>
+        <v>392</v>
+      </c>
+      <c r="B417" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B418" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
+      </c>
+      <c r="B418" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
+      </c>
+      <c r="B419" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6281,10 +6281,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6292,10 +6292,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6303,10 +6303,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6314,10 +6314,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B423" s="6" t="s">
-        <v>406</v>
+        <v>392</v>
+      </c>
+      <c r="B423" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B424" s="6" t="s">
-        <v>407</v>
+        <v>392</v>
+      </c>
+      <c r="B424" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6336,10 +6336,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B425" s="6" t="s">
-        <v>408</v>
+        <v>392</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6347,10 +6347,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6358,10 +6358,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6369,10 +6369,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6380,10 +6380,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6391,10 +6391,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6435,10 +6435,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6446,10 +6446,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6457,10 +6457,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B436" s="6" t="s">
-        <v>419</v>
+        <v>392</v>
+      </c>
+      <c r="B436" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6468,10 +6468,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6479,10 +6479,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6490,10 +6490,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6501,10 +6501,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B441" s="6" t="s">
-        <v>424</v>
+        <v>392</v>
+      </c>
+      <c r="B441" s="11" t="s">
+        <v>423</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6534,10 +6534,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B444" s="6" t="s">
-        <v>427</v>
+        <v>392</v>
+      </c>
+      <c r="B444" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B445" s="6" t="s">
-        <v>428</v>
+        <v>392</v>
+      </c>
+      <c r="B445" s="11" t="s">
+        <v>427</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B446" s="6" t="s">
-        <v>429</v>
+        <v>392</v>
+      </c>
+      <c r="B446" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6589,10 +6589,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6611,10 +6611,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B450" s="6" t="s">
-        <v>433</v>
+        <v>392</v>
+      </c>
+      <c r="B450" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6633,10 +6633,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B452" s="6" t="s">
-        <v>435</v>
+        <v>392</v>
+      </c>
+      <c r="B452" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6666,10 +6666,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6677,10 +6677,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6688,10 +6688,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6710,10 +6710,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6721,10 +6721,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6754,10 +6754,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6787,10 +6787,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6798,10 +6798,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6809,10 +6809,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6820,10 +6820,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -6862,10 +6862,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -6873,10 +6873,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -6884,10 +6884,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -6906,10 +6906,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6917,10 +6917,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -6939,10 +6939,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -6950,10 +6950,10 @@
     </row>
     <row r="483" spans="1:3" ht="19.5">
       <c r="A483" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B483" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="B483" t="s">
-        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -6995,7 +6995,7 @@
     <hyperlink ref="B40" r:id="rId35"/>
     <hyperlink ref="B41" r:id="rId36"/>
     <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
+    <hyperlink ref="B45" r:id="rId38" display="Search an element in a matriix"/>
     <hyperlink ref="B46" r:id="rId39"/>
     <hyperlink ref="B47" r:id="rId40"/>
     <hyperlink ref="B48" r:id="rId41"/>
@@ -7405,8 +7405,9 @@
     <hyperlink ref="B356" r:id="rId445"/>
     <hyperlink ref="B2" r:id="rId446"/>
     <hyperlink ref="B3" r:id="rId447"/>
+    <hyperlink ref="B483" r:id="rId448"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId448"/>
+  <pageSetup orientation="portrait" r:id="rId449"/>
 </worksheet>
 </file>
--- a/DS-ALGO-INTERVIEW/FINAL450.xlsx
+++ b/DS-ALGO-INTERVIEW/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="581">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1075,9 +1075,6 @@
     <t>Making wired Connections</t>
   </si>
   <si>
-    <t xml:space="preserve">word Ladder </t>
-  </si>
-  <si>
     <t>Dijkstra algo</t>
   </si>
   <si>
@@ -1279,9 +1276,6 @@
     <t>Minimum number of jumps to reach end</t>
   </si>
   <si>
-    <t>Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
     <t>Minimum removals from array to make max –min &lt;= K</t>
   </si>
   <si>
@@ -1418,13 +1412,358 @@
   </si>
   <si>
     <t>Search an element in a matriix (see TUF video for best answer)</t>
+  </si>
+  <si>
+    <t>find element in row wise &amp; column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/ceiling-in-a-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/3-way-quicksort-dutch-national-flag/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/counting-sort/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/radix-sort/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/how-to-efficiently-sort-a-big-list-dates-in-20s/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/make-array-elements-equal-minimum-cost/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-reversing-sub-array-make-array-sorted/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/nearly-sorted-algorithm/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-number-pairs-xy-yx/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/insert-in-sorted-and-non-overlapping-interval-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-swaps-to-make-two-array-identical/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-largest-multiple-3-array-digits-set-2-time-o1-space/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/permute-two-arrays-sum-every-pair-greater-equal-k/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-pair-with-greatest-product-in-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/maximum-contiguous-circular-sum/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-subarray-with-given-sum/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/equilibrium-index-of-an-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-k-pairs-smallest-sums-two-arrays/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-a-sorted-and-rotated-array-find-if-there-is-a-pair-with-a-given-sum/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/maximum-sum-iarri-among-rotations-given-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-positive-and-negative-numbers-publish/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/largest-subarray-with-equal-number-of-0s-and-1s/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/move-zeroes-end-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/largest-sum-subarray-least-k-numbers/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/form-minimum-number-from-given-sequence/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-smallest-value-represented-sum-subset-given-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/generate-all-possible-sorted-arrays-from-alternate-elements-of-two-given-arrays/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-an-array-arr-find-the-maximum-j-i-such-that-arrj-arri/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/number-subarrays-maximum-value-given-range/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-all-possible-combinations-of-r-elements-in-a-given-array-of-size-n/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/longest-subarray-sum-divisible-k/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/reorder-a-array-according-to-given-indexes/</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/JAN18/problems/MAXSC/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form-set-2-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-an-array-of-numbers-arrange-the-numbers-to-form-the-biggest-number/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/space-optimization-using-bit-manipulations/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/mos-algorithm-query-square-root-decomposition-set-1-introduction/</t>
+  </si>
+  <si>
+    <t>Searching And Sorting</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-words-together-set-characters/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/generate-all-binary-strings-from-given-pattern/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/smallest-window-contains-characters-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-ways-increase-lcs-length-two-strings-one/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-a-sequence-of-words-print-all-anagrams-together/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/anagram-substring-search-search-permutations/</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/FEB18/problems/PERMPAL</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/make-largest-palindrome-changing-k-digits/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/lexicographically-first-palindromic-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/longest-non-palindromic-substring/</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/JAN18/problems/STRMRG</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-kth-character-of-decrypted-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-words-whose-th-letter-either-1-th-th-i1-th-letter-given-word/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-number-distinct-palindromic-sub-strings-given-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-total-anagram-substrings/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/min-flips-of-continuous-characters-to-make-all-characters-same-in-a-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-binary-strings-k-times-appearing-adjacent-two-set-bits/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/binary-representation-next-greater-number-number-1s-0s/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-longest-common-sub-sequences-lexicographical-order/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-shortest-common-supersequence/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-largest-word-dictionary-deleting-characters-given-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/number-subsequences-string-divisible-n/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-patterns-101-given-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-a-string-so-that-all-same-characters-become-at-least-d-distance-away/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/lexicographic-rank-of-a-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-sorted-dictionary-find-precedence-characters/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-excel-column-name-given-number/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-the-longest-substring-with-k-unique-characters-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-given-sentence-given-set-simple-grammer-rules/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-ways-break-string-bracket-form/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-concatenation-of-zig-zag-string-form-in-n-rows/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/transform-one-string-to-another-using-minimum-number-of-given-operation/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-given-string-can-represented-substring-iterating-substring-n-times/</t>
+  </si>
+  <si>
+    <t>STRINGS</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-the-smallest-positive-number-missing-from-an-unsorted-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-the-maximum-repeating-number-in-ok-time/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/online-algorithm-for-checking-palindrome-in-a-stream/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/kth-largest-element-in-a-stream/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/k-th-smallest-element-removing-integers-natural-numbers/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-surpasser-count-of-each-element-in-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/a-pancake-sorting-question/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/k-numbers-difference-maximum-minimum-k-number-minimized/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-k-closest-elements-given-value/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/tournament-tree-and-binary-heap/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/a-data-structure-question/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cuckoo-hashing/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-number-of-employees-under-every-manager/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-itinerary-from-a-given-list-of-tickets/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-if-an-array-can-be-divided-into-pairs-whose-sum-is-divisible-by-k/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-the-largest-subarray-with-0-sum/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-distinct-elements-in-every-window-of-size-k/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/design-a-data-structure-that-supports-insert-delete-search-and-getrandom-in-constant-time/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/group-shifted-string/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/palindrome-substring-queries/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-four-elements-a-b-c-and-d-in-an-array-such-that-ab-cd/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/subarrays-distinct-elements/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-recurring-sequence-fraction/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/k-maximum-sum-combinations-two-arrays/</t>
+  </si>
+  <si>
+    <t>Hash and Heap</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/problems/IOC</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag(Simple, Just take care of infinity thing)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-number-times-string-occurs-given-string/(VVVVVIMP)</t>
+  </si>
+  <si>
+    <t>word Ladder  (leetcode- Word Ladder)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-possible-paths-two-vertices/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-ii/description/</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/josephus-problem-set-1-a-on-solution/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-number-times-string-occurs-given-string/</t>
+  </si>
+  <si>
+    <t>https://ide.codingblocks.com/s/246552</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1486,8 +1825,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1508,12 +1890,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1521,12 +1915,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1546,9 +1955,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1558,6 +1964,42 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1870,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C483"/>
+  <dimension ref="A1:D617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="B406" sqref="B406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1889,13 +2331,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="10" t="s">
-        <v>463</v>
+      <c r="B2" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="10" t="s">
-        <v>464</v>
+      <c r="B3" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1918,7 +2360,7 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1929,7 +2371,7 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1940,7 +2382,7 @@
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1951,7 +2393,7 @@
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1962,7 +2404,7 @@
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1973,7 +2415,7 @@
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1984,7 +2426,7 @@
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1995,7 +2437,7 @@
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2006,7 +2448,7 @@
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2017,7 +2459,7 @@
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2028,7 +2470,7 @@
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2039,7 +2481,7 @@
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2050,7 +2492,7 @@
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2061,7 +2503,7 @@
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2072,7 +2514,7 @@
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2083,7 +2525,7 @@
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2094,7 +2536,7 @@
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2105,7 +2547,7 @@
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2116,7 +2558,7 @@
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2127,7 +2569,7 @@
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2138,7 +2580,7 @@
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2149,7 +2591,7 @@
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2160,7 +2602,7 @@
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2171,7 +2613,7 @@
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2182,7 +2624,7 @@
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2193,7 +2635,7 @@
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2204,7 +2646,7 @@
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2215,7 +2657,7 @@
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2226,7 +2668,7 @@
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2237,7 +2679,7 @@
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2248,7 +2690,7 @@
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -2259,7 +2701,7 @@
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2270,7 +2712,7 @@
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2281,7 +2723,7 @@
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2292,7 +2734,7 @@
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2327,7 +2769,7 @@
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2338,8 +2780,8 @@
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>467</v>
+      <c r="B45" s="13" t="s">
+        <v>465</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -2360,7 +2802,7 @@
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2371,14 +2813,14 @@
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2389,89 +2831,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
+      <c r="D56" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="21">
+      <c r="D57" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
+      <c r="D58" s="28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>52</v>
       </c>
@@ -2481,162 +2937,207 @@
       <c r="C59" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="21">
+      <c r="D59" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
+      <c r="D60" s="28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="21">
+      <c r="D61" s="32" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="21">
+      <c r="D62" s="28" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="21">
+      <c r="D63" s="28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="21">
+      <c r="D64" s="35" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21">
       <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="21">
+      <c r="D65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="21">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="21">
+      <c r="D66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21">
       <c r="A67" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="21">
+      <c r="D67" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21">
       <c r="A68" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="21">
+      <c r="D68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21">
       <c r="A69" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="21">
+      <c r="D69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21">
       <c r="A70" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="21">
+      <c r="D70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="21">
       <c r="A71" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="21">
+      <c r="D71" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="21">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="21">
+      <c r="D72" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="21">
       <c r="A73" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="21">
+      <c r="D73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="21">
       <c r="A74" s="5" t="s">
         <v>52</v>
       </c>
@@ -2647,40 +3148,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" spans="1:4" ht="21">
       <c r="A75" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" spans="1:4" ht="21">
       <c r="A76" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" spans="1:4" ht="21">
       <c r="A77" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" spans="1:4" ht="21">
       <c r="A78" s="5" t="s">
         <v>52</v>
       </c>
@@ -2691,18 +3192,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" spans="1:4" ht="21">
       <c r="A79" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" spans="1:4" ht="21">
       <c r="A80" s="5" t="s">
         <v>52</v>
       </c>
@@ -2717,7 +3218,7 @@
       <c r="A81" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -2728,7 +3229,7 @@
       <c r="A82" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -2739,7 +3240,7 @@
       <c r="A83" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -2750,7 +3251,7 @@
       <c r="A84" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -2761,7 +3262,7 @@
       <c r="A85" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -2772,7 +3273,7 @@
       <c r="A86" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -2794,7 +3295,7 @@
       <c r="A88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -2805,7 +3306,7 @@
       <c r="A89" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -2827,7 +3328,7 @@
       <c r="A91" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -2838,7 +3339,7 @@
       <c r="A92" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -2849,7 +3350,7 @@
       <c r="A93" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="31" t="s">
         <v>90</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -2860,7 +3361,7 @@
       <c r="A94" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -2871,7 +3372,7 @@
       <c r="A95" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="31" t="s">
         <v>92</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -2893,7 +3394,7 @@
       <c r="A97" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -2904,7 +3405,7 @@
       <c r="A98" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -2920,7 +3421,7 @@
       <c r="A101" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -2931,7 +3432,7 @@
       <c r="A102" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -2942,7 +3443,7 @@
       <c r="A103" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -2953,7 +3454,7 @@
       <c r="A104" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -2964,7 +3465,7 @@
       <c r="A105" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -2986,7 +3487,7 @@
       <c r="A107" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -2997,7 +3498,7 @@
       <c r="A108" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -3019,7 +3520,7 @@
       <c r="A110" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -3041,7 +3542,7 @@
       <c r="A112" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -3063,7 +3564,7 @@
       <c r="A114" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -3140,7 +3641,7 @@
       <c r="A121" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -3151,7 +3652,7 @@
       <c r="A122" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -3184,7 +3685,7 @@
       <c r="A125" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="13" t="s">
         <v>121</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -3239,7 +3740,7 @@
       <c r="A130" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="13" t="s">
         <v>126</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -3283,7 +3784,7 @@
       <c r="A134" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -3320,7 +3821,7 @@
       <c r="A139" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="13" t="s">
         <v>134</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -3331,7 +3832,7 @@
       <c r="A140" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -3342,7 +3843,7 @@
       <c r="A141" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -3353,7 +3854,7 @@
       <c r="A142" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="13" t="s">
         <v>137</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -3364,7 +3865,7 @@
       <c r="A143" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="13" t="s">
         <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -3375,7 +3876,7 @@
       <c r="A144" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -3386,7 +3887,7 @@
       <c r="A145" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -3397,7 +3898,7 @@
       <c r="A146" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -3408,7 +3909,7 @@
       <c r="A147" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -3419,7 +3920,7 @@
       <c r="A148" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -3430,7 +3931,7 @@
       <c r="A149" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -3441,7 +3942,7 @@
       <c r="A150" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -3452,7 +3953,7 @@
       <c r="A151" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -3474,7 +3975,7 @@
       <c r="A153" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -3507,7 +4008,7 @@
       <c r="A156" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -3529,7 +4030,7 @@
       <c r="A158" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -3540,7 +4041,7 @@
       <c r="A159" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C159" s="4" t="s">
@@ -3573,7 +4074,7 @@
       <c r="A162" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -3595,7 +4096,7 @@
       <c r="A164" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="14" t="s">
         <v>159</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -3606,7 +4107,7 @@
       <c r="A165" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="14" t="s">
         <v>160</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -3617,7 +4118,7 @@
       <c r="A166" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -3628,7 +4129,7 @@
       <c r="A167" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C167" s="4" t="s">
@@ -3639,7 +4140,7 @@
       <c r="A168" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="13" t="s">
         <v>163</v>
       </c>
       <c r="C168" s="4" t="s">
@@ -3650,7 +4151,7 @@
       <c r="A169" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="10" t="s">
         <v>164</v>
       </c>
       <c r="C169" s="4" t="s">
@@ -3683,7 +4184,7 @@
       <c r="A172" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -3694,7 +4195,7 @@
       <c r="A173" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C173" s="4" t="s">
@@ -3720,7 +4221,7 @@
       <c r="A177" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="10" t="s">
         <v>171</v>
       </c>
       <c r="C177" s="4" t="s">
@@ -3731,7 +4232,7 @@
       <c r="A178" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -3742,7 +4243,7 @@
       <c r="A179" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -3753,7 +4254,7 @@
       <c r="A180" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -3764,7 +4265,7 @@
       <c r="A181" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C181" s="4" t="s">
@@ -3808,7 +4309,7 @@
       <c r="A185" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="10" t="s">
         <v>179</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -3819,7 +4320,7 @@
       <c r="A186" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -3830,7 +4331,7 @@
       <c r="A187" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -3841,7 +4342,7 @@
       <c r="A188" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C188" s="4" t="s">
@@ -3863,7 +4364,7 @@
       <c r="A190" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C190" s="4" t="s">
@@ -3874,7 +4375,7 @@
       <c r="A191" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="10" t="s">
         <v>185</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -3907,7 +4408,7 @@
       <c r="A194" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="10" t="s">
         <v>188</v>
       </c>
       <c r="C194" s="4" t="s">
@@ -3918,7 +4419,7 @@
       <c r="A195" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="10" t="s">
         <v>189</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -3929,7 +4430,7 @@
       <c r="A196" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="10" t="s">
         <v>190</v>
       </c>
       <c r="C196" s="4" t="s">
@@ -3951,7 +4452,7 @@
       <c r="A198" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="10" t="s">
         <v>192</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -3962,7 +4463,7 @@
       <c r="A199" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -3973,7 +4474,7 @@
       <c r="A200" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -3984,7 +4485,7 @@
       <c r="A201" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C201" s="4" t="s">
@@ -3995,7 +4496,7 @@
       <c r="A202" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -4017,7 +4518,7 @@
       <c r="A204" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C204" s="4" t="s">
@@ -4028,7 +4529,7 @@
       <c r="A205" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="13" t="s">
         <v>199</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -4039,7 +4540,7 @@
       <c r="A206" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="13" t="s">
         <v>200</v>
       </c>
       <c r="C206" s="4" t="s">
@@ -4050,7 +4551,7 @@
       <c r="A207" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="10" t="s">
         <v>201</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -4094,7 +4595,7 @@
       <c r="A211" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="10" t="s">
         <v>205</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -4115,7 +4616,7 @@
       <c r="A214" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C214" s="4" t="s">
@@ -4126,7 +4627,7 @@
       <c r="A215" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C215" s="4" t="s">
@@ -4137,7 +4638,7 @@
       <c r="A216" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="10" t="s">
         <v>209</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -4159,7 +4660,7 @@
       <c r="A218" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" s="10" t="s">
         <v>211</v>
       </c>
       <c r="C218" s="4" t="s">
@@ -4170,7 +4671,7 @@
       <c r="A219" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B219" s="11" t="s">
+      <c r="B219" s="10" t="s">
         <v>212</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -4181,7 +4682,7 @@
       <c r="A220" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B220" s="12" t="s">
+      <c r="B220" s="11" t="s">
         <v>213</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -4236,7 +4737,7 @@
       <c r="A225" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C225" s="4" t="s">
@@ -4247,7 +4748,7 @@
       <c r="A226" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="10" t="s">
         <v>219</v>
       </c>
       <c r="C226" s="4" t="s">
@@ -4280,7 +4781,7 @@
       <c r="A229" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C229" s="4" t="s">
@@ -4335,7 +4836,7 @@
       <c r="A234" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="13" t="s">
         <v>227</v>
       </c>
       <c r="C234" s="4" t="s">
@@ -4365,7 +4866,7 @@
       <c r="A238" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C238" s="4" t="s">
@@ -4376,7 +4877,7 @@
       <c r="A239" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="13" t="s">
         <v>231</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -4387,7 +4888,7 @@
       <c r="A240" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="13" t="s">
         <v>232</v>
       </c>
       <c r="C240" s="4" t="s">
@@ -4409,7 +4910,7 @@
       <c r="A242" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C242" s="4" t="s">
@@ -4420,7 +4921,7 @@
       <c r="A243" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="12" t="s">
         <v>235</v>
       </c>
       <c r="C243" s="4" t="s">
@@ -4453,7 +4954,7 @@
       <c r="A246" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="10" t="s">
         <v>238</v>
       </c>
       <c r="C246" s="4" t="s">
@@ -4464,7 +4965,7 @@
       <c r="A247" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="13" t="s">
         <v>239</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -4497,7 +4998,7 @@
       <c r="A250" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="13" t="s">
         <v>242</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -4508,7 +5009,7 @@
       <c r="A251" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" s="13" t="s">
         <v>243</v>
       </c>
       <c r="C251" s="4" t="s">
@@ -4519,7 +5020,7 @@
       <c r="A252" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -4530,7 +5031,7 @@
       <c r="A253" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="13" t="s">
         <v>245</v>
       </c>
       <c r="C253" s="4" t="s">
@@ -4541,7 +5042,7 @@
       <c r="A254" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B254" s="10" t="s">
         <v>246</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -4552,7 +5053,7 @@
       <c r="A255" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B255" s="10" t="s">
         <v>247</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -4563,7 +5064,7 @@
       <c r="A256" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="13" t="s">
         <v>248</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -4574,7 +5075,7 @@
       <c r="A257" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B257" s="11" t="s">
+      <c r="B257" s="10" t="s">
         <v>249</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -4607,7 +5108,7 @@
       <c r="A260" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" s="10" t="s">
         <v>252</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -4618,7 +5119,7 @@
       <c r="A261" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="10" t="s">
         <v>253</v>
       </c>
       <c r="C261" s="4" t="s">
@@ -4706,7 +5207,7 @@
       <c r="A269" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" s="13" t="s">
         <v>261</v>
       </c>
       <c r="C269" s="4" t="s">
@@ -4717,7 +5218,7 @@
       <c r="A270" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" s="13" t="s">
         <v>262</v>
       </c>
       <c r="C270" s="4" t="s">
@@ -4728,7 +5229,7 @@
       <c r="A271" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -4739,7 +5240,7 @@
       <c r="A272" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" s="13" t="s">
         <v>263</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -4901,7 +5402,7 @@
       <c r="A288" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B288" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -4963,8 +5464,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
-      <c r="B294" s="7"/>
+    <row r="294" spans="1:3">
+      <c r="B294" s="21"/>
       <c r="C294" s="4"/>
     </row>
     <row r="295" spans="1:3" ht="21">
@@ -4975,7 +5476,7 @@
       <c r="A296" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="11" t="s">
+      <c r="B296" s="10" t="s">
         <v>285</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -4986,7 +5487,7 @@
       <c r="A297" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B297" s="10" t="s">
         <v>286</v>
       </c>
       <c r="C297" s="4" t="s">
@@ -4997,7 +5498,7 @@
       <c r="A298" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B298" s="11" t="s">
+      <c r="B298" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -5008,7 +5509,7 @@
       <c r="A299" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B299" s="11" t="s">
+      <c r="B299" s="10" t="s">
         <v>288</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -5030,7 +5531,7 @@
       <c r="A301" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B301" s="10" t="s">
         <v>290</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -5041,7 +5542,7 @@
       <c r="A302" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B302" s="11" t="s">
+      <c r="B302" s="10" t="s">
         <v>291</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -5052,7 +5553,7 @@
       <c r="A303" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B303" s="13" t="s">
         <v>292</v>
       </c>
       <c r="C303" s="4" t="s">
@@ -5063,7 +5564,7 @@
       <c r="A304" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B304" s="11" t="s">
+      <c r="B304" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C304" s="4" t="s">
@@ -5074,7 +5575,7 @@
       <c r="A305" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C305" s="4" t="s">
@@ -5085,7 +5586,7 @@
       <c r="A306" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="B306" s="10" t="s">
         <v>295</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -5096,7 +5597,7 @@
       <c r="A307" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="B307" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C307" s="4" t="s">
@@ -5107,7 +5608,7 @@
       <c r="A308" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B308" s="11" t="s">
+      <c r="B308" s="10" t="s">
         <v>297</v>
       </c>
       <c r="C308" s="4" t="s">
@@ -5118,7 +5619,7 @@
       <c r="A309" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B309" s="12" t="s">
+      <c r="B309" s="11" t="s">
         <v>298</v>
       </c>
       <c r="C309" s="4" t="s">
@@ -5129,7 +5630,7 @@
       <c r="A310" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B310" s="11" t="s">
+      <c r="B310" s="10" t="s">
         <v>299</v>
       </c>
       <c r="C310" s="4" t="s">
@@ -5140,7 +5641,7 @@
       <c r="A311" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="B311" s="10" t="s">
         <v>300</v>
       </c>
       <c r="C311" s="4" t="s">
@@ -5151,7 +5652,7 @@
       <c r="A312" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B312" s="11" t="s">
+      <c r="B312" s="10" t="s">
         <v>301</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -5162,7 +5663,7 @@
       <c r="A313" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B313" s="11" t="s">
+      <c r="B313" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C313" s="4" t="s">
@@ -5173,7 +5674,7 @@
       <c r="A314" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B314" s="13" t="s">
         <v>303</v>
       </c>
       <c r="C314" s="4" t="s">
@@ -5184,7 +5685,7 @@
       <c r="A315" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B315" s="10" t="s">
         <v>304</v>
       </c>
       <c r="C315" s="4" t="s">
@@ -5195,7 +5696,7 @@
       <c r="A316" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B316" s="11" t="s">
+      <c r="B316" s="10" t="s">
         <v>305</v>
       </c>
       <c r="C316" s="4" t="s">
@@ -5206,7 +5707,7 @@
       <c r="A317" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B317" s="11" t="s">
+      <c r="B317" s="10" t="s">
         <v>306</v>
       </c>
       <c r="C317" s="4" t="s">
@@ -5217,7 +5718,7 @@
       <c r="A318" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B318" s="11" t="s">
+      <c r="B318" s="10" t="s">
         <v>307</v>
       </c>
       <c r="C318" s="4" t="s">
@@ -5261,7 +5762,7 @@
       <c r="A322" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B322" s="11" t="s">
+      <c r="B322" s="10" t="s">
         <v>311</v>
       </c>
       <c r="C322" s="4" t="s">
@@ -5272,7 +5773,7 @@
       <c r="A323" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B323" s="11" t="s">
+      <c r="B323" s="10" t="s">
         <v>312</v>
       </c>
       <c r="C323" s="4" t="s">
@@ -5283,7 +5784,7 @@
       <c r="A324" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B324" s="11" t="s">
+      <c r="B324" s="10" t="s">
         <v>313</v>
       </c>
       <c r="C324" s="4" t="s">
@@ -5305,7 +5806,7 @@
       <c r="A326" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B326" s="6" t="s">
+      <c r="B326" s="13" t="s">
         <v>315</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -5371,7 +5872,7 @@
       <c r="A332" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B332" s="11" t="s">
+      <c r="B332" s="10" t="s">
         <v>321</v>
       </c>
       <c r="C332" s="4" t="s">
@@ -5382,7 +5883,7 @@
       <c r="A333" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B333" s="11" t="s">
+      <c r="B333" s="10" t="s">
         <v>322</v>
       </c>
       <c r="C333" s="4" t="s">
@@ -5401,7 +5902,7 @@
       <c r="A336" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="11" t="s">
+      <c r="B336" s="10" t="s">
         <v>324</v>
       </c>
       <c r="C336" s="4" t="s">
@@ -5412,7 +5913,7 @@
       <c r="A337" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B337" s="11" t="s">
+      <c r="B337" s="10" t="s">
         <v>325</v>
       </c>
       <c r="C337" s="4" t="s">
@@ -5423,7 +5924,7 @@
       <c r="A338" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B338" s="6" t="s">
+      <c r="B338" s="13" t="s">
         <v>326</v>
       </c>
       <c r="C338" s="4" t="s">
@@ -5434,7 +5935,7 @@
       <c r="A339" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B339" s="6" t="s">
+      <c r="B339" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C339" s="4" t="s">
@@ -5445,7 +5946,7 @@
       <c r="A340" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B340" s="6" t="s">
+      <c r="B340" s="10" t="s">
         <v>328</v>
       </c>
       <c r="C340" s="4" t="s">
@@ -5456,7 +5957,7 @@
       <c r="A341" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B341" s="6" t="s">
+      <c r="B341" s="13" t="s">
         <v>329</v>
       </c>
       <c r="C341" s="4" t="s">
@@ -5489,7 +5990,7 @@
       <c r="A344" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="34" t="s">
         <v>332</v>
       </c>
       <c r="C344" s="4" t="s">
@@ -5500,7 +6001,7 @@
       <c r="A345" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B345" s="6" t="s">
+      <c r="B345" s="13" t="s">
         <v>333</v>
       </c>
       <c r="C345" s="4" t="s">
@@ -5522,7 +6023,7 @@
       <c r="A347" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B347" s="16" t="s">
+      <c r="B347" s="13" t="s">
         <v>335</v>
       </c>
       <c r="C347" s="4" t="s">
@@ -5533,7 +6034,7 @@
       <c r="A348" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B348" s="10" t="s">
         <v>336</v>
       </c>
       <c r="C348" s="4" t="s">
@@ -5544,7 +6045,7 @@
       <c r="A349" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B349" s="6" t="s">
+      <c r="B349" s="13" t="s">
         <v>337</v>
       </c>
       <c r="C349" s="4" t="s">
@@ -5577,7 +6078,7 @@
       <c r="A352" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B352" s="6" t="s">
+      <c r="B352" s="13" t="s">
         <v>340</v>
       </c>
       <c r="C352" s="4" t="s">
@@ -5595,19 +6096,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
-      <c r="B354" s="7"/>
+    <row r="354" spans="1:3">
+      <c r="B354" s="16"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
-      <c r="B355" s="7"/>
+    <row r="355" spans="1:3">
+      <c r="B355" s="16"/>
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B356" s="11" t="s">
+      <c r="B356" s="10" t="s">
         <v>343</v>
       </c>
       <c r="C356" s="4" t="s">
@@ -5618,7 +6119,7 @@
       <c r="A357" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B357" s="11" t="s">
+      <c r="B357" s="10" t="s">
         <v>344</v>
       </c>
       <c r="C357" s="4" t="s">
@@ -5629,7 +6130,7 @@
       <c r="A358" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B358" s="11" t="s">
+      <c r="B358" s="10" t="s">
         <v>345</v>
       </c>
       <c r="C358" s="4" t="s">
@@ -5640,7 +6141,7 @@
       <c r="A359" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B359" s="6" t="s">
+      <c r="B359" s="10" t="s">
         <v>346</v>
       </c>
       <c r="C359" s="4" t="s">
@@ -5651,7 +6152,7 @@
       <c r="A360" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B360" s="6" t="s">
+      <c r="B360" s="10" t="s">
         <v>347</v>
       </c>
       <c r="C360" s="4" t="s">
@@ -5662,7 +6163,7 @@
       <c r="A361" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B361" s="6" t="s">
+      <c r="B361" s="31" t="s">
         <v>348</v>
       </c>
       <c r="C361" s="4" t="s">
@@ -5673,7 +6174,7 @@
       <c r="A362" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B362" s="6" t="s">
+      <c r="B362" s="13" t="s">
         <v>349</v>
       </c>
       <c r="C362" s="4" t="s">
@@ -5684,7 +6185,7 @@
       <c r="A363" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B363" s="6" t="s">
+      <c r="B363" s="10" t="s">
         <v>350</v>
       </c>
       <c r="C363" s="4" t="s">
@@ -5695,7 +6196,7 @@
       <c r="A364" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B364" s="6" t="s">
+      <c r="B364" s="13" t="s">
         <v>351</v>
       </c>
       <c r="C364" s="4" t="s">
@@ -5706,7 +6207,7 @@
       <c r="A365" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B365" s="6" t="s">
+      <c r="B365" s="13" t="s">
         <v>352</v>
       </c>
       <c r="C365" s="4" t="s">
@@ -5717,8 +6218,8 @@
       <c r="A366" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B366" s="6" t="s">
-        <v>353</v>
+      <c r="B366" s="13" t="s">
+        <v>574</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -5728,8 +6229,8 @@
       <c r="A367" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B367" s="11" t="s">
-        <v>354</v>
+      <c r="B367" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -5739,8 +6240,8 @@
       <c r="A368" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B368" s="6" t="s">
-        <v>355</v>
+      <c r="B368" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -5750,8 +6251,8 @@
       <c r="A369" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B369" s="6" t="s">
-        <v>356</v>
+      <c r="B369" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5761,8 +6262,8 @@
       <c r="A370" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B370" s="6" t="s">
-        <v>357</v>
+      <c r="B370" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -5772,8 +6273,8 @@
       <c r="A371" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B371" s="6" t="s">
-        <v>358</v>
+      <c r="B371" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -5783,8 +6284,8 @@
       <c r="A372" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B372" s="6" t="s">
-        <v>359</v>
+      <c r="B372" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -5794,8 +6295,8 @@
       <c r="A373" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B373" s="6" t="s">
-        <v>360</v>
+      <c r="B373" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -5805,8 +6306,8 @@
       <c r="A374" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B374" s="6" t="s">
-        <v>361</v>
+      <c r="B374" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -5816,8 +6317,8 @@
       <c r="A375" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B375" s="6" t="s">
-        <v>362</v>
+      <c r="B375" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -5827,8 +6328,8 @@
       <c r="A376" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B376" s="6" t="s">
-        <v>363</v>
+      <c r="B376" s="13" t="s">
+        <v>366</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -5838,8 +6339,8 @@
       <c r="A377" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B377" s="6" t="s">
-        <v>364</v>
+      <c r="B377" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -5849,8 +6350,8 @@
       <c r="A378" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B378" s="6" t="s">
-        <v>365</v>
+      <c r="B378" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -5860,8 +6361,8 @@
       <c r="A379" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B379" s="6" t="s">
-        <v>366</v>
+      <c r="B379" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -5871,8 +6372,8 @@
       <c r="A380" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B380" s="6" t="s">
-        <v>367</v>
+      <c r="B380" s="13" t="s">
+        <v>370</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -5882,8 +6383,8 @@
       <c r="A381" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B381" s="6" t="s">
-        <v>368</v>
+      <c r="B381" s="13" t="s">
+        <v>362</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -5893,8 +6394,8 @@
       <c r="A382" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B382" s="6" t="s">
-        <v>369</v>
+      <c r="B382" s="13" t="s">
+        <v>372</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -5904,8 +6405,8 @@
       <c r="A383" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B383" s="6" t="s">
-        <v>370</v>
+      <c r="B383" s="13" t="s">
+        <v>380</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -5915,8 +6416,8 @@
       <c r="A384" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B384" s="6" t="s">
-        <v>371</v>
+      <c r="B384" s="13" t="s">
+        <v>363</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -5927,7 +6428,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -5937,8 +6438,8 @@
       <c r="A386" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B386" s="6" t="s">
-        <v>373</v>
+      <c r="B386" s="13" t="s">
+        <v>369</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -5949,7 +6450,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -5959,8 +6460,8 @@
       <c r="A388" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B388" s="6" t="s">
-        <v>375</v>
+      <c r="B388" s="13" t="s">
+        <v>368</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -5970,8 +6471,8 @@
       <c r="A389" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B389" s="6" t="s">
-        <v>376</v>
+      <c r="B389" s="31" t="s">
+        <v>375</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -5982,7 +6483,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -5992,8 +6493,8 @@
       <c r="A391" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B391" s="6" t="s">
-        <v>377</v>
+      <c r="B391" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -6004,7 +6505,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -6015,7 +6516,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6025,8 +6526,8 @@
       <c r="A394" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B394" s="6" t="s">
-        <v>380</v>
+      <c r="B394" s="31" t="s">
+        <v>379</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6037,7 +6538,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6047,8 +6548,8 @@
       <c r="A396" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B396" s="6" t="s">
-        <v>382</v>
+      <c r="B396" s="31" t="s">
+        <v>381</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6058,8 +6559,8 @@
       <c r="A397" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B397" s="6" t="s">
-        <v>383</v>
+      <c r="B397" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6069,26 +6570,23 @@
       <c r="A398" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B398" s="6" t="s">
-        <v>384</v>
+      <c r="B398" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
-      <c r="A399" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C399" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="21">
-      <c r="B400" s="7"/>
+    <row r="399" spans="1:3">
+      <c r="B399" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="C399" s="4"/>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="B400" s="33" t="s">
+        <v>576</v>
+      </c>
       <c r="C400" s="4"/>
     </row>
     <row r="401" spans="1:3" ht="21">
@@ -6097,10 +6595,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6108,10 +6606,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6119,10 +6617,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6130,7 +6628,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>88</v>
@@ -6141,10 +6639,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6152,10 +6650,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6171,10 +6669,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B410" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="B410" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6182,10 +6680,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B411" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6193,10 +6691,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B412" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6204,10 +6702,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B413" s="11" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6215,10 +6713,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B414" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6226,10 +6724,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>398</v>
+        <v>391</v>
+      </c>
+      <c r="B415" s="13" t="s">
+        <v>397</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6237,10 +6735,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B416" s="11" t="s">
-        <v>399</v>
+        <v>391</v>
+      </c>
+      <c r="B416" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6248,9 +6746,9 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B417" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>272</v>
       </c>
       <c r="C417" s="4" t="s">
@@ -6259,10 +6757,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B418" s="11" t="s">
-        <v>400</v>
+        <v>391</v>
+      </c>
+      <c r="B418" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6270,10 +6768,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B419" s="11" t="s">
-        <v>401</v>
+        <v>391</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6281,10 +6779,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>402</v>
+        <v>391</v>
+      </c>
+      <c r="B420" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6292,10 +6790,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>403</v>
+        <v>391</v>
+      </c>
+      <c r="B421" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6303,10 +6801,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B422" s="6" t="s">
-        <v>404</v>
+        <v>391</v>
+      </c>
+      <c r="B422" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6314,10 +6812,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B423" s="11" t="s">
-        <v>405</v>
+        <v>391</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6325,10 +6823,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B424" s="11" t="s">
-        <v>406</v>
+        <v>391</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>405</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6336,10 +6834,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B425" s="11" t="s">
-        <v>407</v>
+        <v>391</v>
+      </c>
+      <c r="B425" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6347,10 +6845,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B426" s="6" t="s">
-        <v>408</v>
+        <v>391</v>
+      </c>
+      <c r="B426" s="13" t="s">
+        <v>407</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6358,10 +6856,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B427" s="6" t="s">
-        <v>409</v>
+        <v>391</v>
+      </c>
+      <c r="B427" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6369,10 +6867,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B428" s="6" t="s">
-        <v>410</v>
+        <v>391</v>
+      </c>
+      <c r="B428" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6380,10 +6878,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B429" s="6" t="s">
-        <v>411</v>
+        <v>391</v>
+      </c>
+      <c r="B429" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6391,10 +6889,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B430" s="6" t="s">
-        <v>412</v>
+        <v>391</v>
+      </c>
+      <c r="B430" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6402,10 +6900,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>413</v>
+        <v>391</v>
+      </c>
+      <c r="B431" s="13" t="s">
+        <v>412</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6413,10 +6911,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B432" s="6" t="s">
-        <v>414</v>
+        <v>391</v>
+      </c>
+      <c r="B432" s="13" t="s">
+        <v>413</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6424,10 +6922,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>415</v>
+        <v>391</v>
+      </c>
+      <c r="B433" s="13" t="s">
+        <v>414</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6435,10 +6933,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B434" s="6" t="s">
-        <v>416</v>
+        <v>391</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>415</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6446,10 +6944,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B435" s="6" t="s">
-        <v>417</v>
+        <v>391</v>
+      </c>
+      <c r="B435" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6457,10 +6955,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B436" s="11" t="s">
-        <v>418</v>
+        <v>391</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6468,10 +6966,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B437" s="6" t="s">
-        <v>419</v>
+        <v>391</v>
+      </c>
+      <c r="B437" s="13" t="s">
+        <v>418</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6479,10 +6977,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B438" s="6" t="s">
-        <v>420</v>
+        <v>391</v>
+      </c>
+      <c r="B438" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6490,10 +6988,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B439" s="6" t="s">
-        <v>421</v>
+        <v>391</v>
+      </c>
+      <c r="B439" s="13" t="s">
+        <v>572</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6501,10 +6999,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6512,10 +7010,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B441" s="11" t="s">
-        <v>423</v>
+        <v>391</v>
+      </c>
+      <c r="B441" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6523,10 +7021,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B442" s="6" t="s">
-        <v>424</v>
+        <v>391</v>
+      </c>
+      <c r="B442" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6534,10 +7032,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B443" s="6" t="s">
-        <v>425</v>
+        <v>391</v>
+      </c>
+      <c r="B443" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6545,10 +7043,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B444" s="11" t="s">
-        <v>426</v>
+        <v>391</v>
+      </c>
+      <c r="B444" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6556,10 +7054,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B445" s="11" t="s">
-        <v>427</v>
+        <v>391</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6567,10 +7065,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B446" s="11" t="s">
-        <v>428</v>
+        <v>391</v>
+      </c>
+      <c r="B446" s="10" t="s">
+        <v>426</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6578,10 +7076,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B447" s="6" t="s">
-        <v>429</v>
+        <v>391</v>
+      </c>
+      <c r="B447" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6589,10 +7087,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B448" s="6" t="s">
-        <v>430</v>
+        <v>391</v>
+      </c>
+      <c r="B448" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6600,10 +7098,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B449" s="6" t="s">
-        <v>431</v>
+        <v>391</v>
+      </c>
+      <c r="B449" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6611,10 +7109,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B450" s="11" t="s">
-        <v>432</v>
+        <v>391</v>
+      </c>
+      <c r="B450" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6622,10 +7120,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B451" s="6" t="s">
-        <v>433</v>
+        <v>391</v>
+      </c>
+      <c r="B451" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6633,10 +7131,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B452" s="11" t="s">
-        <v>434</v>
+        <v>391</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6644,10 +7142,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B453" s="6" t="s">
-        <v>435</v>
+        <v>391</v>
+      </c>
+      <c r="B453" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6655,10 +7153,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B454" s="6" t="s">
-        <v>436</v>
+        <v>391</v>
+      </c>
+      <c r="B454" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6666,10 +7164,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>437</v>
+        <v>391</v>
+      </c>
+      <c r="B455" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6677,10 +7175,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B456" s="6" t="s">
-        <v>438</v>
+        <v>391</v>
+      </c>
+      <c r="B456" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6688,10 +7186,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B457" s="6" t="s">
-        <v>439</v>
+        <v>391</v>
+      </c>
+      <c r="B457" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6699,10 +7197,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B458" s="6" t="s">
-        <v>440</v>
+        <v>391</v>
+      </c>
+      <c r="B458" s="13" t="s">
+        <v>438</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6710,10 +7208,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6721,10 +7219,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B460" s="6" t="s">
-        <v>442</v>
+        <v>391</v>
+      </c>
+      <c r="B460" s="13" t="s">
+        <v>440</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6732,10 +7230,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>443</v>
+        <v>391</v>
+      </c>
+      <c r="B461" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6743,10 +7241,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B462" s="6" t="s">
-        <v>444</v>
+        <v>391</v>
+      </c>
+      <c r="B462" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6754,10 +7252,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B463" s="6" t="s">
-        <v>445</v>
+        <v>391</v>
+      </c>
+      <c r="B463" s="13" t="s">
+        <v>443</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6765,10 +7263,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B464" s="6" t="s">
-        <v>446</v>
+        <v>391</v>
+      </c>
+      <c r="B464" s="13" t="s">
+        <v>444</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6776,10 +7274,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B465" s="6" t="s">
-        <v>447</v>
+        <v>391</v>
+      </c>
+      <c r="B465" s="15" t="s">
+        <v>445</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6787,10 +7285,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B466" s="6" t="s">
-        <v>448</v>
+        <v>391</v>
+      </c>
+      <c r="B466" s="13" t="s">
+        <v>446</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6798,10 +7296,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6809,10 +7307,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B468" s="6" t="s">
-        <v>450</v>
+        <v>391</v>
+      </c>
+      <c r="B468" s="13" t="s">
+        <v>448</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6820,17 +7318,19 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>451</v>
+        <v>391</v>
+      </c>
+      <c r="B469" s="10" t="s">
+        <v>449</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
-      <c r="B470" s="7"/>
+      <c r="B470" s="7" t="s">
+        <v>579</v>
+      </c>
       <c r="C470" s="4"/>
     </row>
     <row r="471" spans="1:3" ht="21">
@@ -6840,10 +7340,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -6851,10 +7351,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B473" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -6862,10 +7362,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -6873,10 +7373,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -6884,10 +7384,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -6895,10 +7395,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -6906,10 +7406,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6917,10 +7417,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -6928,10 +7428,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -6939,10 +7439,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -6950,11 +7450,576 @@
     </row>
     <row r="483" spans="1:3" ht="19.5">
       <c r="A483" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B483" s="10" t="s">
-        <v>466</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="B483" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="19.5">
+      <c r="A484" s="5"/>
+    </row>
+    <row r="485" spans="1:3" ht="19.5">
+      <c r="A485" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B485" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="B486" s="26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="B487" s="27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="B488" s="27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="B489" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="C489" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="B490" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C490" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="B491" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="C491" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="B492" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="C492" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="B493" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="C493" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="B494" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="C494" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="B495" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C495" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="B496" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="C496" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="B497" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C497" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="B498" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="C498" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="B499" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="B500" s="41" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="19.5">
+      <c r="A504" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B504" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="C504" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="19.5">
+      <c r="A505" s="5"/>
+      <c r="B505" s="28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="B506" s="28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="B507" s="28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="B508" s="28" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="B509" s="38" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="B510" s="28" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="B511" s="37" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="B512" s="28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="B513" s="37" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="B514" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C514" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="B515" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="C515" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="B516" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="C516" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>580</v>
+      </c>
+      <c r="B517" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="C517" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="B518" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="C518" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="B519" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="C519" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="B520" s="17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="B521" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="B522" s="17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="B523" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="B524" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="B525" s="17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="B526" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="B527" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="B528" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="B529" s="29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="B532" s="21" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="B533" s="21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="B534" s="21" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="B535" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="B536" s="21" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="B537" s="24" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="B538" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="C538" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="B539" s="28" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="B540" s="21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="B541" s="21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="B542" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="B543" s="22" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="B544" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="B545" s="27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="B546" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="C546" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="B547" s="24" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="B548" s="21" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="B549" s="24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="B550" s="24" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="B551" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="B552" s="21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="B553" s="28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="B554" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="B555" s="21" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="B556" s="21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="B557" s="21" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="20"/>
+      <c r="B560" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2">
+      <c r="B561" s="16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2">
+      <c r="B562" s="16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" s="18" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2">
+      <c r="B564" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2">
+      <c r="B565" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2">
+      <c r="B566" s="16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2">
+      <c r="B567" s="16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2">
+      <c r="B568" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2">
+      <c r="B569" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2">
+      <c r="B570" s="16" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2">
+      <c r="B571" s="16" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2">
+      <c r="B572" s="18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2">
+      <c r="B573" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2">
+      <c r="B574" s="18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2">
+      <c r="B575" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2">
+      <c r="B576" s="16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2">
+      <c r="B577" s="16" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2">
+      <c r="B578" s="16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2">
+      <c r="B579" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2">
+      <c r="B580" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2">
+      <c r="B581" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2">
+      <c r="B582" s="16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2">
+      <c r="B583" s="16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2">
+      <c r="B584" s="16" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2">
+      <c r="B585" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2">
+      <c r="B586" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2">
+      <c r="B587" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2">
+      <c r="B617" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7292,7 +8357,7 @@
     <hyperlink ref="B363" r:id="rId332"/>
     <hyperlink ref="B364" r:id="rId333"/>
     <hyperlink ref="B365" r:id="rId334"/>
-    <hyperlink ref="B366" r:id="rId335"/>
+    <hyperlink ref="B366" r:id="rId335" display="word Ladder "/>
     <hyperlink ref="B367" r:id="rId336"/>
     <hyperlink ref="B368" r:id="rId337"/>
     <hyperlink ref="B369" r:id="rId338"/>
@@ -7302,112 +8367,215 @@
     <hyperlink ref="B373" r:id="rId342"/>
     <hyperlink ref="B374" r:id="rId343"/>
     <hyperlink ref="B375" r:id="rId344"/>
-    <hyperlink ref="B376" r:id="rId345"/>
-    <hyperlink ref="B377" r:id="rId346"/>
-    <hyperlink ref="B378" r:id="rId347"/>
+    <hyperlink ref="B381" r:id="rId345"/>
+    <hyperlink ref="B384" r:id="rId346"/>
+    <hyperlink ref="B397" r:id="rId347"/>
     <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId349"/>
-    <hyperlink ref="B381" r:id="rId350"/>
-    <hyperlink ref="B382" r:id="rId351"/>
-    <hyperlink ref="B383" r:id="rId352"/>
-    <hyperlink ref="B384" r:id="rId353"/>
+    <hyperlink ref="B376" r:id="rId349"/>
+    <hyperlink ref="B395" r:id="rId350"/>
+    <hyperlink ref="B388" r:id="rId351"/>
+    <hyperlink ref="B386" r:id="rId352"/>
+    <hyperlink ref="B380" r:id="rId353"/>
     <hyperlink ref="B385" r:id="rId354"/>
-    <hyperlink ref="B386" r:id="rId355"/>
+    <hyperlink ref="B382" r:id="rId355"/>
     <hyperlink ref="B387" r:id="rId356"/>
-    <hyperlink ref="B388" r:id="rId357"/>
+    <hyperlink ref="B378" r:id="rId357"/>
     <hyperlink ref="B389" r:id="rId358"/>
-    <hyperlink ref="B390" r:id="rId359"/>
-    <hyperlink ref="B391" r:id="rId360"/>
-    <hyperlink ref="B392" r:id="rId361"/>
-    <hyperlink ref="B393" r:id="rId362"/>
-    <hyperlink ref="B394" r:id="rId363"/>
-    <hyperlink ref="B396" r:id="rId364"/>
-    <hyperlink ref="B395" r:id="rId365"/>
-    <hyperlink ref="B397" r:id="rId366"/>
-    <hyperlink ref="B398" r:id="rId367"/>
-    <hyperlink ref="B399" r:id="rId368"/>
-    <hyperlink ref="B402" r:id="rId369"/>
-    <hyperlink ref="B403" r:id="rId370"/>
-    <hyperlink ref="B404" r:id="rId371"/>
-    <hyperlink ref="B405" r:id="rId372"/>
-    <hyperlink ref="B406" r:id="rId373"/>
-    <hyperlink ref="B407" r:id="rId374"/>
-    <hyperlink ref="B410" r:id="rId375"/>
-    <hyperlink ref="B411" r:id="rId376"/>
-    <hyperlink ref="B412" r:id="rId377"/>
-    <hyperlink ref="B413" r:id="rId378"/>
-    <hyperlink ref="B414" r:id="rId379"/>
-    <hyperlink ref="B415" r:id="rId380"/>
-    <hyperlink ref="B416" r:id="rId381"/>
-    <hyperlink ref="B417" r:id="rId382"/>
-    <hyperlink ref="B418" r:id="rId383"/>
-    <hyperlink ref="B419" r:id="rId384"/>
-    <hyperlink ref="B420" r:id="rId385"/>
-    <hyperlink ref="B421" r:id="rId386"/>
-    <hyperlink ref="B422" r:id="rId387"/>
-    <hyperlink ref="B423" r:id="rId388"/>
-    <hyperlink ref="B424" r:id="rId389"/>
-    <hyperlink ref="B425" r:id="rId390"/>
-    <hyperlink ref="B426" r:id="rId391"/>
-    <hyperlink ref="B427" r:id="rId392"/>
-    <hyperlink ref="B428" r:id="rId393"/>
-    <hyperlink ref="B429" r:id="rId394"/>
-    <hyperlink ref="B430" r:id="rId395"/>
-    <hyperlink ref="B431" r:id="rId396"/>
-    <hyperlink ref="B432" r:id="rId397"/>
-    <hyperlink ref="B433" r:id="rId398"/>
-    <hyperlink ref="B434" r:id="rId399"/>
-    <hyperlink ref="B435" r:id="rId400"/>
-    <hyperlink ref="B436" r:id="rId401"/>
-    <hyperlink ref="B437" r:id="rId402"/>
-    <hyperlink ref="B438" r:id="rId403"/>
-    <hyperlink ref="B439" r:id="rId404"/>
-    <hyperlink ref="B440" r:id="rId405"/>
-    <hyperlink ref="B441" r:id="rId406"/>
-    <hyperlink ref="B442" r:id="rId407"/>
-    <hyperlink ref="B443" r:id="rId408"/>
-    <hyperlink ref="B444" r:id="rId409"/>
-    <hyperlink ref="B445" r:id="rId410"/>
-    <hyperlink ref="B446" r:id="rId411"/>
-    <hyperlink ref="B447" r:id="rId412"/>
-    <hyperlink ref="B448" r:id="rId413"/>
-    <hyperlink ref="B449" r:id="rId414"/>
-    <hyperlink ref="B451" r:id="rId415"/>
-    <hyperlink ref="B450" r:id="rId416"/>
-    <hyperlink ref="B452" r:id="rId417"/>
-    <hyperlink ref="B453" r:id="rId418"/>
-    <hyperlink ref="B454" r:id="rId419"/>
-    <hyperlink ref="B455" r:id="rId420"/>
-    <hyperlink ref="B456" r:id="rId421"/>
-    <hyperlink ref="B457" r:id="rId422"/>
-    <hyperlink ref="B458" r:id="rId423"/>
-    <hyperlink ref="B459" r:id="rId424"/>
-    <hyperlink ref="B460" r:id="rId425"/>
-    <hyperlink ref="B461" r:id="rId426"/>
-    <hyperlink ref="B462" r:id="rId427"/>
-    <hyperlink ref="B469" r:id="rId428"/>
-    <hyperlink ref="B468" r:id="rId429"/>
-    <hyperlink ref="B467" r:id="rId430"/>
-    <hyperlink ref="B466" r:id="rId431"/>
-    <hyperlink ref="B465" r:id="rId432"/>
-    <hyperlink ref="B464" r:id="rId433"/>
-    <hyperlink ref="B463" r:id="rId434"/>
-    <hyperlink ref="B472" r:id="rId435"/>
-    <hyperlink ref="B473" r:id="rId436"/>
-    <hyperlink ref="B474" r:id="rId437"/>
-    <hyperlink ref="B475" r:id="rId438"/>
-    <hyperlink ref="B476" r:id="rId439"/>
-    <hyperlink ref="B477" r:id="rId440"/>
-    <hyperlink ref="B478" r:id="rId441"/>
-    <hyperlink ref="B481" r:id="rId442"/>
-    <hyperlink ref="B479" r:id="rId443"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId445"/>
-    <hyperlink ref="B2" r:id="rId446"/>
-    <hyperlink ref="B3" r:id="rId447"/>
-    <hyperlink ref="B483" r:id="rId448"/>
+    <hyperlink ref="B391" r:id="rId359"/>
+    <hyperlink ref="B392" r:id="rId360"/>
+    <hyperlink ref="B393" r:id="rId361"/>
+    <hyperlink ref="B394" r:id="rId362"/>
+    <hyperlink ref="B396" r:id="rId363"/>
+    <hyperlink ref="B383" r:id="rId364"/>
+    <hyperlink ref="B377" r:id="rId365"/>
+    <hyperlink ref="B398" r:id="rId366"/>
+    <hyperlink ref="B390" r:id="rId367"/>
+    <hyperlink ref="B430" r:id="rId368"/>
+    <hyperlink ref="B431" r:id="rId369"/>
+    <hyperlink ref="B432" r:id="rId370"/>
+    <hyperlink ref="B433" r:id="rId371"/>
+    <hyperlink ref="B434" r:id="rId372"/>
+    <hyperlink ref="B435" r:id="rId373"/>
+    <hyperlink ref="B436" r:id="rId374"/>
+    <hyperlink ref="B437" r:id="rId375"/>
+    <hyperlink ref="B438" r:id="rId376"/>
+    <hyperlink ref="B439" r:id="rId377" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId378"/>
+    <hyperlink ref="B441" r:id="rId379"/>
+    <hyperlink ref="B442" r:id="rId380"/>
+    <hyperlink ref="B443" r:id="rId381"/>
+    <hyperlink ref="B444" r:id="rId382"/>
+    <hyperlink ref="B445" r:id="rId383"/>
+    <hyperlink ref="B446" r:id="rId384"/>
+    <hyperlink ref="B447" r:id="rId385"/>
+    <hyperlink ref="B448" r:id="rId386"/>
+    <hyperlink ref="B449" r:id="rId387"/>
+    <hyperlink ref="B451" r:id="rId388"/>
+    <hyperlink ref="B450" r:id="rId389"/>
+    <hyperlink ref="B452" r:id="rId390"/>
+    <hyperlink ref="B453" r:id="rId391"/>
+    <hyperlink ref="B454" r:id="rId392"/>
+    <hyperlink ref="B455" r:id="rId393"/>
+    <hyperlink ref="B456" r:id="rId394"/>
+    <hyperlink ref="B457" r:id="rId395"/>
+    <hyperlink ref="B458" r:id="rId396"/>
+    <hyperlink ref="B459" r:id="rId397"/>
+    <hyperlink ref="B460" r:id="rId398"/>
+    <hyperlink ref="B461" r:id="rId399"/>
+    <hyperlink ref="B462" r:id="rId400"/>
+    <hyperlink ref="B469" r:id="rId401"/>
+    <hyperlink ref="B468" r:id="rId402"/>
+    <hyperlink ref="B467" r:id="rId403"/>
+    <hyperlink ref="B466" r:id="rId404"/>
+    <hyperlink ref="B465" r:id="rId405"/>
+    <hyperlink ref="B464" r:id="rId406"/>
+    <hyperlink ref="B463" r:id="rId407"/>
+    <hyperlink ref="B472" r:id="rId408"/>
+    <hyperlink ref="B473" r:id="rId409"/>
+    <hyperlink ref="B474" r:id="rId410"/>
+    <hyperlink ref="B475" r:id="rId411"/>
+    <hyperlink ref="B476" r:id="rId412"/>
+    <hyperlink ref="B477" r:id="rId413"/>
+    <hyperlink ref="B478" r:id="rId414"/>
+    <hyperlink ref="B481" r:id="rId415"/>
+    <hyperlink ref="B479" r:id="rId416"/>
+    <hyperlink ref="B480" r:id="rId417" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B356" r:id="rId418"/>
+    <hyperlink ref="B2" r:id="rId419"/>
+    <hyperlink ref="B3" r:id="rId420"/>
+    <hyperlink ref="B483" r:id="rId421"/>
+    <hyperlink ref="B497" r:id="rId422"/>
+    <hyperlink ref="B488" r:id="rId423"/>
+    <hyperlink ref="B485" r:id="rId424"/>
+    <hyperlink ref="B486" r:id="rId425"/>
+    <hyperlink ref="B487" r:id="rId426"/>
+    <hyperlink ref="B489" r:id="rId427"/>
+    <hyperlink ref="B490" r:id="rId428"/>
+    <hyperlink ref="B492" r:id="rId429"/>
+    <hyperlink ref="B494" r:id="rId430"/>
+    <hyperlink ref="B496" r:id="rId431"/>
+    <hyperlink ref="B498" r:id="rId432"/>
+    <hyperlink ref="B495" r:id="rId433"/>
+    <hyperlink ref="B491" r:id="rId434"/>
+    <hyperlink ref="B493" r:id="rId435"/>
+    <hyperlink ref="B402" r:id="rId436"/>
+    <hyperlink ref="B403" r:id="rId437"/>
+    <hyperlink ref="B404" r:id="rId438"/>
+    <hyperlink ref="B405" r:id="rId439"/>
+    <hyperlink ref="B406" r:id="rId440"/>
+    <hyperlink ref="B407" r:id="rId441"/>
+    <hyperlink ref="B410" r:id="rId442"/>
+    <hyperlink ref="B411" r:id="rId443"/>
+    <hyperlink ref="B412" r:id="rId444"/>
+    <hyperlink ref="B413" r:id="rId445"/>
+    <hyperlink ref="B414" r:id="rId446"/>
+    <hyperlink ref="B415" r:id="rId447"/>
+    <hyperlink ref="B416" r:id="rId448"/>
+    <hyperlink ref="B417" r:id="rId449"/>
+    <hyperlink ref="B418" r:id="rId450"/>
+    <hyperlink ref="B419" r:id="rId451"/>
+    <hyperlink ref="B420" r:id="rId452"/>
+    <hyperlink ref="B421" r:id="rId453"/>
+    <hyperlink ref="B422" r:id="rId454"/>
+    <hyperlink ref="B423" r:id="rId455"/>
+    <hyperlink ref="B424" r:id="rId456"/>
+    <hyperlink ref="B425" r:id="rId457"/>
+    <hyperlink ref="B426" r:id="rId458"/>
+    <hyperlink ref="B427" r:id="rId459"/>
+    <hyperlink ref="B428" r:id="rId460"/>
+    <hyperlink ref="B429" r:id="rId461"/>
+    <hyperlink ref="B504" r:id="rId462"/>
+    <hyperlink ref="B505" r:id="rId463"/>
+    <hyperlink ref="B506" r:id="rId464"/>
+    <hyperlink ref="B507" r:id="rId465"/>
+    <hyperlink ref="B508" r:id="rId466"/>
+    <hyperlink ref="B509" r:id="rId467"/>
+    <hyperlink ref="B514" r:id="rId468"/>
+    <hyperlink ref="B510" r:id="rId469"/>
+    <hyperlink ref="B523" r:id="rId470"/>
+    <hyperlink ref="B515" r:id="rId471"/>
+    <hyperlink ref="B524" r:id="rId472"/>
+    <hyperlink ref="B520" r:id="rId473"/>
+    <hyperlink ref="B521" r:id="rId474"/>
+    <hyperlink ref="B522" r:id="rId475"/>
+    <hyperlink ref="B517" r:id="rId476"/>
+    <hyperlink ref="B525" r:id="rId477"/>
+    <hyperlink ref="B526" r:id="rId478"/>
+    <hyperlink ref="B527" r:id="rId479"/>
+    <hyperlink ref="B519" r:id="rId480"/>
+    <hyperlink ref="B516" r:id="rId481"/>
+    <hyperlink ref="B518" r:id="rId482"/>
+    <hyperlink ref="B513" r:id="rId483"/>
+    <hyperlink ref="B529" r:id="rId484"/>
+    <hyperlink ref="B511" r:id="rId485"/>
+    <hyperlink ref="B559" r:id="rId486"/>
+    <hyperlink ref="B560" r:id="rId487"/>
+    <hyperlink ref="B561" r:id="rId488"/>
+    <hyperlink ref="B562" r:id="rId489"/>
+    <hyperlink ref="B563" r:id="rId490"/>
+    <hyperlink ref="B564" r:id="rId491"/>
+    <hyperlink ref="B566" r:id="rId492"/>
+    <hyperlink ref="B567" r:id="rId493"/>
+    <hyperlink ref="B568" r:id="rId494"/>
+    <hyperlink ref="D59" r:id="rId495"/>
+    <hyperlink ref="B569" r:id="rId496"/>
+    <hyperlink ref="B570" r:id="rId497"/>
+    <hyperlink ref="B571" r:id="rId498"/>
+    <hyperlink ref="B572" r:id="rId499"/>
+    <hyperlink ref="B574" r:id="rId500"/>
+    <hyperlink ref="D60" r:id="rId501"/>
+    <hyperlink ref="B576" r:id="rId502"/>
+    <hyperlink ref="B577" r:id="rId503"/>
+    <hyperlink ref="B578" r:id="rId504"/>
+    <hyperlink ref="B579" r:id="rId505"/>
+    <hyperlink ref="B581" r:id="rId506"/>
+    <hyperlink ref="B584" r:id="rId507"/>
+    <hyperlink ref="D62" r:id="rId508"/>
+    <hyperlink ref="D58" r:id="rId509"/>
+    <hyperlink ref="B586" r:id="rId510"/>
+    <hyperlink ref="B573" r:id="rId511"/>
+    <hyperlink ref="B575" r:id="rId512"/>
+    <hyperlink ref="D61" r:id="rId513"/>
+    <hyperlink ref="B585" r:id="rId514"/>
+    <hyperlink ref="B583" r:id="rId515"/>
+    <hyperlink ref="D63" r:id="rId516"/>
+    <hyperlink ref="B565" r:id="rId517"/>
+    <hyperlink ref="B587" r:id="rId518"/>
+    <hyperlink ref="B582" r:id="rId519"/>
+    <hyperlink ref="B580" r:id="rId520"/>
+    <hyperlink ref="B532" r:id="rId521"/>
+    <hyperlink ref="B533" r:id="rId522"/>
+    <hyperlink ref="B534" r:id="rId523"/>
+    <hyperlink ref="B535" r:id="rId524"/>
+    <hyperlink ref="B536" r:id="rId525"/>
+    <hyperlink ref="B537" r:id="rId526"/>
+    <hyperlink ref="B538" r:id="rId527"/>
+    <hyperlink ref="B539" r:id="rId528"/>
+    <hyperlink ref="B540" r:id="rId529"/>
+    <hyperlink ref="B541" r:id="rId530"/>
+    <hyperlink ref="B542" r:id="rId531"/>
+    <hyperlink ref="B544" r:id="rId532"/>
+    <hyperlink ref="B545" r:id="rId533"/>
+    <hyperlink ref="B546" r:id="rId534"/>
+    <hyperlink ref="B547" r:id="rId535"/>
+    <hyperlink ref="B548" r:id="rId536"/>
+    <hyperlink ref="B549" r:id="rId537"/>
+    <hyperlink ref="B550" r:id="rId538"/>
+    <hyperlink ref="B551" r:id="rId539"/>
+    <hyperlink ref="B552" r:id="rId540"/>
+    <hyperlink ref="B553" r:id="rId541"/>
+    <hyperlink ref="B554" r:id="rId542"/>
+    <hyperlink ref="B555" r:id="rId543"/>
+    <hyperlink ref="B556" r:id="rId544"/>
+    <hyperlink ref="B557" r:id="rId545"/>
+    <hyperlink ref="B543" r:id="rId546"/>
+    <hyperlink ref="B528" r:id="rId547"/>
+    <hyperlink ref="B512" r:id="rId548"/>
+    <hyperlink ref="B399" r:id="rId549"/>
+    <hyperlink ref="B400" r:id="rId550"/>
+    <hyperlink ref="B500" r:id="rId551"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId449"/>
+  <pageSetup orientation="portrait" r:id="rId552"/>
 </worksheet>
 </file>
--- a/DS-ALGO-INTERVIEW/FINAL450.xlsx
+++ b/DS-ALGO-INTERVIEW/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="593">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
     <t>find duplicate in an array of N+1 Integers</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Next Permutation</t>
   </si>
   <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
     <t>Best time to buy and Sell stock</t>
   </si>
   <si>
@@ -1486,9 +1480,6 @@
     <t>https://www.geeksforgeeks.org/rearrange-positive-and-negative-numbers-publish/</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/largest-subarray-with-equal-number-of-0s-and-1s/</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/</t>
   </si>
   <si>
@@ -1753,10 +1744,55 @@
     <t>https://www.geeksforgeeks.org/josephus-problem-set-1-a-on-solution/</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/find-number-times-string-occurs-given-string/</t>
-  </si>
-  <si>
     <t>https://ide.codingblocks.com/s/246552</t>
+  </si>
+  <si>
+    <t>Study 16 while revising LL</t>
+  </si>
+  <si>
+    <t>Set matrixes 0 (TUF)</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array(leetcode 45,55)</t>
+  </si>
+  <si>
+    <t>largest independent set</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-in-mountain-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/random-pick-with-weight/</t>
+  </si>
+  <si>
+    <t>repeated and mising</t>
+  </si>
+  <si>
+    <t>count triplet</t>
+  </si>
+  <si>
+    <t>missing number in AP</t>
+  </si>
+  <si>
+    <t>factorial</t>
+  </si>
+  <si>
+    <t>find array with greatest prod</t>
+  </si>
+  <si>
+    <t>Articulation Points</t>
+  </si>
+  <si>
+    <t>Find bridge</t>
+  </si>
+  <si>
+    <t>product array puzzle</t>
+  </si>
+  <si>
+    <t>Count Inversion / Surpasser Count</t>
+  </si>
+  <si>
+    <t>page allocation</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1986,20 +2022,23 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2304,7 +2343,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2314,15 +2353,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="B406" sqref="B406"/>
+    <sheetView tabSelected="1" topLeftCell="B99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25">
@@ -2332,12 +2371,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2404,7 +2443,7 @@
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2448,7 +2487,7 @@
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2459,8 +2498,8 @@
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>15</v>
+      <c r="B15" s="10" t="s">
+        <v>579</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -2471,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -2482,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -2492,8 +2531,8 @@
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>18</v>
+      <c r="B18" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -2504,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -2515,7 +2554,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -2526,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>21</v>
+        <v>591</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -2537,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -2548,7 +2587,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -2558,8 +2597,8 @@
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>24</v>
+      <c r="B24" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -2570,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -2581,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -2591,8 +2630,8 @@
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>27</v>
+      <c r="B27" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -2602,8 +2641,8 @@
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>28</v>
+      <c r="B28" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -2614,7 +2653,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -2624,8 +2663,8 @@
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>30</v>
+      <c r="B30" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -2635,8 +2674,8 @@
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>31</v>
+      <c r="B31" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -2647,7 +2686,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -2658,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -2669,7 +2708,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -2680,7 +2719,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -2690,8 +2729,8 @@
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>36</v>
+      <c r="B36" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -2702,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -2713,7 +2752,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -2723,8 +2762,8 @@
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>39</v>
+      <c r="B39" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -2735,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -2746,7 +2785,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -2767,10 +2806,10 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -2778,10 +2817,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -2789,10 +2828,10 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
@@ -2800,10 +2839,10 @@
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -2811,10 +2850,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -2822,10 +2861,10 @@
     </row>
     <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -2833,10 +2872,10 @@
     </row>
     <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
@@ -2844,10 +2883,10 @@
     </row>
     <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
@@ -2855,10 +2894,10 @@
     </row>
     <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
@@ -2866,10 +2905,10 @@
     </row>
     <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -2877,272 +2916,271 @@
     </row>
     <row r="54" spans="1:4">
       <c r="B54" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>578</v>
+      </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="35" t="s">
-        <v>539</v>
+      <c r="D64" s="34" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21">
       <c r="A65" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21">
       <c r="A66" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21">
       <c r="A67" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="21">
       <c r="A68" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="21">
       <c r="A69" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="21">
       <c r="A70" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D70" t="s">
-        <v>533</v>
+      <c r="D70" s="9" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">
       <c r="A71" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D71" t="s">
-        <v>531</v>
+      <c r="D71" s="9" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
       <c r="A72" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D72" t="s">
-        <v>527</v>
+      <c r="D72" s="43" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
       <c r="A73" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="D73" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
       <c r="A74" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>4</v>
@@ -3150,10 +3188,10 @@
     </row>
     <row r="75" spans="1:4" ht="21">
       <c r="A75" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
@@ -3161,10 +3199,10 @@
     </row>
     <row r="76" spans="1:4" ht="21">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
@@ -3172,10 +3210,10 @@
     </row>
     <row r="77" spans="1:4" ht="21">
       <c r="A77" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -3183,10 +3221,10 @@
     </row>
     <row r="78" spans="1:4" ht="21">
       <c r="A78" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>4</v>
@@ -3194,10 +3232,10 @@
     </row>
     <row r="79" spans="1:4" ht="21">
       <c r="A79" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -3205,10 +3243,10 @@
     </row>
     <row r="80" spans="1:4" ht="21">
       <c r="A80" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>4</v>
@@ -3216,10 +3254,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>4</v>
@@ -3227,10 +3265,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
@@ -3238,10 +3276,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -3249,10 +3287,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>4</v>
@@ -3260,10 +3298,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>4</v>
@@ -3271,10 +3309,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
@@ -3282,10 +3320,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -3293,10 +3331,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>85</v>
+        <v>50</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>4</v>
@@ -3304,10 +3342,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>4</v>
@@ -3315,10 +3353,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>4</v>
@@ -3326,10 +3364,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
@@ -3337,10 +3375,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>89</v>
+        <v>50</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>4</v>
@@ -3348,10 +3386,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>4</v>
@@ -3359,10 +3397,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
@@ -3370,10 +3408,10 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -3381,10 +3419,10 @@
     </row>
     <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>4</v>
@@ -3392,10 +3430,10 @@
     </row>
     <row r="97" spans="1:3" ht="21">
       <c r="A97" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>4</v>
@@ -3403,10 +3441,10 @@
     </row>
     <row r="98" spans="1:3" ht="21">
       <c r="A98" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>4</v>
@@ -3419,43 +3457,43 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>4</v>
@@ -3463,10 +3501,10 @@
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>4</v>
@@ -3474,87 +3512,87 @@
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>4</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="C107" s="44" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C108" s="44" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" s="44" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="C110" s="44" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>4</v>
+        <v>592</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>4</v>
@@ -3562,10 +3600,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>4</v>
@@ -3573,10 +3611,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>4</v>
@@ -3584,10 +3622,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>112</v>
+        <v>94</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>4</v>
@@ -3595,10 +3633,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>113</v>
+        <v>94</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>4</v>
@@ -3606,10 +3644,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>4</v>
@@ -3617,10 +3655,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>4</v>
@@ -3628,10 +3666,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>4</v>
@@ -3639,10 +3677,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>4</v>
@@ -3650,10 +3688,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>4</v>
@@ -3661,10 +3699,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>4</v>
@@ -3672,10 +3710,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>4</v>
@@ -3683,10 +3721,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>4</v>
@@ -3694,10 +3732,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>4</v>
@@ -3705,10 +3743,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>4</v>
@@ -3716,10 +3754,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>124</v>
+        <v>94</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -3727,10 +3765,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>125</v>
+        <v>94</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>4</v>
@@ -3738,10 +3776,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>4</v>
@@ -3749,10 +3787,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>4</v>
@@ -3760,10 +3798,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>4</v>
@@ -3771,10 +3809,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>4</v>
@@ -3782,10 +3820,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>4</v>
@@ -3793,10 +3831,10 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>4</v>
@@ -3804,25 +3842,27 @@
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="21">
-      <c r="B138" s="7"/>
+      <c r="B138" s="7" t="s">
+        <v>577</v>
+      </c>
       <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>4</v>
@@ -3830,10 +3870,10 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>4</v>
@@ -3841,10 +3881,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>4</v>
@@ -3852,10 +3892,10 @@
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>4</v>
@@ -3863,10 +3903,10 @@
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>4</v>
@@ -3874,10 +3914,10 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>4</v>
@@ -3885,10 +3925,10 @@
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
@@ -3896,10 +3936,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>4</v>
@@ -3907,10 +3947,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>4</v>
@@ -3918,10 +3958,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>4</v>
@@ -3929,10 +3969,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>4</v>
@@ -3940,10 +3980,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>4</v>
@@ -3951,10 +3991,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>4</v>
@@ -3962,10 +4002,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>4</v>
@@ -3973,10 +4013,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>4</v>
@@ -3984,10 +4024,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>4</v>
@@ -3995,10 +4035,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>4</v>
@@ -4006,10 +4046,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>4</v>
@@ -4017,10 +4057,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>4</v>
@@ -4028,10 +4068,10 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>4</v>
@@ -4039,10 +4079,10 @@
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>4</v>
@@ -4050,10 +4090,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>4</v>
@@ -4061,10 +4101,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>4</v>
@@ -4072,10 +4112,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>4</v>
@@ -4083,10 +4123,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>4</v>
@@ -4094,10 +4134,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>4</v>
@@ -4105,10 +4145,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>4</v>
@@ -4116,10 +4156,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>4</v>
@@ -4127,10 +4167,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>4</v>
@@ -4138,10 +4178,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>4</v>
@@ -4149,10 +4189,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>4</v>
@@ -4160,10 +4200,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -4171,10 +4211,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>4</v>
@@ -4182,10 +4222,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>4</v>
@@ -4193,10 +4233,10 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>4</v>
@@ -4204,10 +4244,10 @@
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>4</v>
@@ -4219,10 +4259,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>4</v>
@@ -4230,10 +4270,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B178" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>4</v>
@@ -4241,10 +4281,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>4</v>
@@ -4252,10 +4292,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>4</v>
@@ -4263,10 +4303,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>4</v>
@@ -4274,10 +4314,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>4</v>
@@ -4285,10 +4325,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>4</v>
@@ -4296,10 +4336,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>4</v>
@@ -4307,10 +4347,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>4</v>
@@ -4318,10 +4358,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>4</v>
@@ -4329,10 +4369,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>4</v>
@@ -4340,10 +4380,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>4</v>
@@ -4351,10 +4391,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>4</v>
@@ -4362,10 +4402,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>4</v>
@@ -4373,10 +4413,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>4</v>
@@ -4384,10 +4424,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>4</v>
@@ -4395,10 +4435,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>4</v>
@@ -4406,10 +4446,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>4</v>
@@ -4417,10 +4457,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>4</v>
@@ -4428,10 +4468,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>4</v>
@@ -4439,10 +4479,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>4</v>
@@ -4450,10 +4490,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>4</v>
@@ -4461,10 +4501,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>4</v>
@@ -4472,10 +4512,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>4</v>
@@ -4483,10 +4523,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>4</v>
@@ -4494,10 +4534,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>4</v>
@@ -4505,10 +4545,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>4</v>
@@ -4516,10 +4556,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>4</v>
@@ -4527,10 +4567,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
@@ -4538,10 +4578,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>4</v>
@@ -4549,10 +4589,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>4</v>
@@ -4560,10 +4600,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>4</v>
@@ -4571,10 +4611,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>4</v>
@@ -4582,10 +4622,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4593,10 +4633,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>4</v>
@@ -4604,7 +4644,9 @@
     </row>
     <row r="212" spans="1:3" ht="21">
       <c r="A212" s="8"/>
-      <c r="B212" s="7"/>
+      <c r="B212" s="7" t="s">
+        <v>580</v>
+      </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="1:3" ht="21">
@@ -4614,10 +4656,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
@@ -4625,10 +4667,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B215" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
@@ -4636,10 +4678,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
@@ -4647,10 +4689,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
@@ -4658,10 +4700,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>4</v>
@@ -4669,10 +4711,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
@@ -4680,10 +4722,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
@@ -4691,10 +4733,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>4</v>
@@ -4702,10 +4744,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>4</v>
@@ -4713,10 +4755,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
@@ -4724,10 +4766,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4735,10 +4777,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>4</v>
@@ -4746,10 +4788,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
@@ -4757,10 +4799,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4768,10 +4810,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4779,10 +4821,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4790,10 +4832,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4801,10 +4843,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4812,10 +4854,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4823,10 +4865,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4834,10 +4876,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>4</v>
@@ -4845,10 +4887,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4864,10 +4906,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
@@ -4875,10 +4917,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B239" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="B239" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
@@ -4886,10 +4928,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
@@ -4897,10 +4939,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4908,10 +4950,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
@@ -4919,10 +4961,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
@@ -4930,10 +4972,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
@@ -4941,10 +4983,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
@@ -4952,10 +4994,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
@@ -4963,10 +5005,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4974,10 +5016,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4985,10 +5027,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4996,10 +5038,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -5007,10 +5049,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -5018,10 +5060,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -5029,10 +5071,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -5040,10 +5082,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -5051,10 +5093,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -5062,10 +5104,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -5073,10 +5115,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -5084,10 +5126,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -5095,10 +5137,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -5106,10 +5148,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -5117,10 +5159,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -5128,10 +5170,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -5139,10 +5181,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -5150,10 +5192,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -5161,10 +5203,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -5172,10 +5214,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -5183,10 +5225,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -5194,10 +5236,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -5205,10 +5247,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>261</v>
+        <v>227</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -5216,10 +5258,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B270" s="13" t="s">
-        <v>262</v>
+        <v>227</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -5227,10 +5269,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>86</v>
+        <v>227</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>4</v>
@@ -5238,10 +5280,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -5257,10 +5299,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -5268,10 +5310,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -5279,10 +5321,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -5290,10 +5332,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -5301,10 +5343,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -5312,10 +5354,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -5323,10 +5365,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
@@ -5334,10 +5376,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>4</v>
@@ -5345,10 +5387,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>4</v>
@@ -5356,10 +5398,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -5367,10 +5409,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -5378,10 +5420,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -5389,10 +5431,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -5400,10 +5442,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -5411,10 +5453,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -5422,10 +5464,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -5433,10 +5475,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -5444,10 +5486,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -5455,10 +5497,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -5474,10 +5516,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -5485,10 +5527,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B297" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="B297" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -5496,10 +5538,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -5507,10 +5549,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -5518,10 +5560,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5529,10 +5571,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
@@ -5540,10 +5582,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>4</v>
@@ -5551,10 +5593,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
@@ -5562,10 +5604,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>4</v>
@@ -5573,10 +5615,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5584,10 +5626,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5595,10 +5637,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5606,10 +5648,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5617,10 +5659,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5628,10 +5670,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>4</v>
@@ -5639,10 +5681,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5650,10 +5692,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5661,10 +5703,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5672,10 +5714,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5683,10 +5725,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
@@ -5694,10 +5736,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
@@ -5705,10 +5747,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
@@ -5716,10 +5758,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>4</v>
@@ -5727,10 +5769,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5738,10 +5780,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5749,10 +5791,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5760,10 +5802,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5771,10 +5813,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5782,10 +5824,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5793,10 +5835,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5804,10 +5846,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5815,10 +5857,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5826,10 +5868,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5837,10 +5879,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5848,10 +5890,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5859,10 +5901,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>4</v>
@@ -5870,10 +5912,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5881,10 +5923,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>4</v>
@@ -5900,10 +5942,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
@@ -5911,10 +5953,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B337" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="B337" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
@@ -5922,10 +5964,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
@@ -5933,10 +5975,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
@@ -5944,10 +5986,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
@@ -5955,10 +5997,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B341" s="13" t="s">
-        <v>329</v>
+        <v>321</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
@@ -5966,10 +6008,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
@@ -5977,10 +6019,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>331</v>
+        <v>321</v>
+      </c>
+      <c r="B343" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5988,10 +6030,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B344" s="34" t="s">
-        <v>332</v>
+        <v>321</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>330</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
@@ -5999,10 +6041,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -6010,10 +6052,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
@@ -6021,10 +6063,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B347" s="13" t="s">
-        <v>335</v>
+        <v>321</v>
+      </c>
+      <c r="B347" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
@@ -6032,10 +6074,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
@@ -6043,10 +6085,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B349" s="13" t="s">
-        <v>337</v>
+        <v>321</v>
+      </c>
+      <c r="B349" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
@@ -6054,10 +6096,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
@@ -6065,10 +6107,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
@@ -6076,10 +6118,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B352" s="13" t="s">
-        <v>340</v>
+        <v>321</v>
+      </c>
+      <c r="B352" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
@@ -6087,73 +6129,69 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="B354" s="16"/>
+      <c r="B354" s="39"/>
       <c r="C354" s="4"/>
     </row>
     <row r="355" spans="1:3">
-      <c r="B355" s="16"/>
+      <c r="B355" s="39"/>
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>4</v>
+        <v>588</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B357" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B357" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C357" s="4"/>
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>4</v>
+        <v>589</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C359" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C359" s="4"/>
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -6161,10 +6199,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B361" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
@@ -6172,10 +6210,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
@@ -6183,10 +6221,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
@@ -6194,10 +6232,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B364" s="13" t="s">
-        <v>351</v>
+        <v>340</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
@@ -6205,10 +6243,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B365" s="13" t="s">
-        <v>352</v>
+        <v>340</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
@@ -6216,10 +6254,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -6227,10 +6265,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -6238,10 +6276,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -6249,10 +6287,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -6260,10 +6298,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B370" s="13" t="s">
-        <v>356</v>
+        <v>340</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -6271,10 +6309,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B371" s="13" t="s">
-        <v>357</v>
+        <v>340</v>
+      </c>
+      <c r="B371" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -6282,10 +6320,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -6293,10 +6331,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -6304,10 +6342,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -6315,10 +6353,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -6326,10 +6364,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B376" s="13" t="s">
-        <v>366</v>
+        <v>340</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -6337,10 +6375,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -6348,10 +6386,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -6359,10 +6397,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B379" s="13" t="s">
-        <v>365</v>
+        <v>340</v>
+      </c>
+      <c r="B379" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -6370,10 +6408,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B380" s="13" t="s">
-        <v>370</v>
+        <v>340</v>
+      </c>
+      <c r="B380" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -6381,10 +6419,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B381" s="13" t="s">
-        <v>362</v>
+        <v>340</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -6392,10 +6430,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -6403,10 +6441,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B383" s="13" t="s">
-        <v>380</v>
+        <v>340</v>
+      </c>
+      <c r="B383" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -6414,10 +6452,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B384" s="13" t="s">
-        <v>363</v>
+        <v>340</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -6425,10 +6463,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -6436,10 +6474,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B386" s="13" t="s">
-        <v>369</v>
+        <v>340</v>
+      </c>
+      <c r="B386" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -6447,10 +6485,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -6458,10 +6496,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B388" s="13" t="s">
-        <v>368</v>
+        <v>340</v>
+      </c>
+      <c r="B388" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -6469,10 +6507,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B389" s="31" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -6480,10 +6518,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -6491,10 +6529,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B391" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -6502,10 +6540,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -6513,10 +6551,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6524,10 +6562,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B394" s="31" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6535,10 +6573,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6546,10 +6584,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B396" s="31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6557,10 +6595,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B397" s="12" t="s">
-        <v>364</v>
+        <v>340</v>
+      </c>
+      <c r="B397" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6568,10 +6606,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B398" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6579,13 +6617,13 @@
     </row>
     <row r="399" spans="1:3">
       <c r="B399" s="32" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C399" s="4"/>
     </row>
     <row r="400" spans="1:3">
       <c r="B400" s="33" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C400" s="4"/>
     </row>
@@ -6595,10 +6633,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6606,10 +6644,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B403" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6617,10 +6655,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6628,10 +6666,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6639,10 +6677,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6650,10 +6688,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6669,10 +6707,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6680,10 +6718,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B411" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="B411" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6691,10 +6729,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6702,10 +6740,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6713,10 +6751,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6724,10 +6762,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B415" s="13" t="s">
-        <v>397</v>
+        <v>389</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6735,10 +6773,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6746,10 +6784,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6757,10 +6795,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6768,10 +6806,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6779,10 +6817,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B420" s="13" t="s">
-        <v>401</v>
+        <v>389</v>
+      </c>
+      <c r="B420" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6790,10 +6828,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6801,10 +6839,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B422" s="13" t="s">
-        <v>403</v>
+        <v>389</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6812,10 +6850,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6823,10 +6861,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6834,10 +6872,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6845,10 +6883,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6856,10 +6894,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6867,10 +6905,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6878,10 +6916,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6889,10 +6927,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B430" s="13" t="s">
-        <v>411</v>
+        <v>389</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6900,10 +6938,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B431" s="13" t="s">
-        <v>412</v>
+        <v>389</v>
+      </c>
+      <c r="B431" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6911,10 +6949,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B432" s="13" t="s">
-        <v>413</v>
+        <v>389</v>
+      </c>
+      <c r="B432" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6922,10 +6960,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B433" s="13" t="s">
-        <v>414</v>
+        <v>389</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6933,10 +6971,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6944,10 +6982,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B435" s="13" t="s">
-        <v>416</v>
+        <v>389</v>
+      </c>
+      <c r="B435" s="10" t="s">
+        <v>414</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6955,10 +6993,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6966,10 +7004,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B437" s="13" t="s">
-        <v>418</v>
+        <v>389</v>
+      </c>
+      <c r="B437" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6977,10 +7015,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6988,10 +7026,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B439" s="13" t="s">
-        <v>572</v>
+        <v>389</v>
+      </c>
+      <c r="B439" s="10" t="s">
+        <v>569</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6999,10 +7037,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -7010,10 +7048,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -7021,10 +7059,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B442" s="10" t="s">
-        <v>422</v>
+        <v>389</v>
+      </c>
+      <c r="B442" s="13" t="s">
+        <v>420</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -7032,10 +7070,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -7043,10 +7081,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -7054,10 +7092,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -7065,10 +7103,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -7076,10 +7114,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B447" s="13" t="s">
-        <v>427</v>
+        <v>389</v>
+      </c>
+      <c r="B447" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -7087,10 +7125,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -7098,10 +7136,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -7109,10 +7147,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -7120,10 +7158,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -7131,10 +7169,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B452" s="10" t="s">
-        <v>432</v>
+        <v>389</v>
+      </c>
+      <c r="B452" s="13" t="s">
+        <v>430</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -7142,10 +7180,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B453" s="13" t="s">
-        <v>433</v>
+        <v>389</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -7153,10 +7191,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B454" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -7164,10 +7202,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B455" s="13" t="s">
-        <v>435</v>
+        <v>389</v>
+      </c>
+      <c r="B455" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -7175,10 +7213,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -7186,10 +7224,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B457" s="13" t="s">
-        <v>437</v>
+        <v>389</v>
+      </c>
+      <c r="B457" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -7197,10 +7235,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B458" s="13" t="s">
-        <v>438</v>
+        <v>389</v>
+      </c>
+      <c r="B458" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -7208,10 +7246,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -7219,10 +7257,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B460" s="13" t="s">
-        <v>440</v>
+        <v>389</v>
+      </c>
+      <c r="B460" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -7230,10 +7268,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B461" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -7241,10 +7279,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B462" s="13" t="s">
-        <v>442</v>
+        <v>389</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -7252,10 +7290,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B463" s="13" t="s">
-        <v>443</v>
+        <v>389</v>
+      </c>
+      <c r="B463" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -7263,10 +7301,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B464" s="13" t="s">
-        <v>444</v>
+        <v>389</v>
+      </c>
+      <c r="B464" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -7274,10 +7312,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B465" s="15" t="s">
-        <v>445</v>
+        <v>389</v>
+      </c>
+      <c r="B465" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7285,10 +7323,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B466" s="13" t="s">
-        <v>446</v>
+        <v>389</v>
+      </c>
+      <c r="B466" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7296,10 +7334,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B467" s="6" t="s">
-        <v>447</v>
+        <v>389</v>
+      </c>
+      <c r="B467" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7307,10 +7345,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B468" s="13" t="s">
-        <v>448</v>
+        <v>389</v>
+      </c>
+      <c r="B468" s="10" t="s">
+        <v>446</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7318,19 +7356,17 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
-      <c r="B470" s="7" t="s">
-        <v>579</v>
-      </c>
+      <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
     <row r="471" spans="1:3" ht="21">
@@ -7340,10 +7376,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7351,10 +7387,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B473" s="6" t="s">
         <v>450</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7362,10 +7398,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7373,10 +7409,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7384,10 +7420,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7395,10 +7431,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7406,10 +7442,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7417,10 +7453,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7428,10 +7464,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7439,10 +7475,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7450,10 +7486,10 @@
     </row>
     <row r="483" spans="1:3" ht="19.5">
       <c r="A483" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="19.5">
@@ -7461,561 +7497,556 @@
     </row>
     <row r="485" spans="1:3" ht="19.5">
       <c r="A485" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B485" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="B486" s="26" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="B487" s="27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="B488" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="B489" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C489" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="B490" s="28" t="s">
-        <v>473</v>
+      <c r="B490" s="29" t="s">
+        <v>471</v>
       </c>
       <c r="C490" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="B491" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C491" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="492" spans="1:3">
-      <c r="B492" s="40" t="s">
-        <v>474</v>
+      <c r="B492" s="42" t="s">
+        <v>472</v>
       </c>
       <c r="C492" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="493" spans="1:3">
-      <c r="B493" s="28" t="s">
-        <v>480</v>
+      <c r="B493" s="24" t="s">
+        <v>478</v>
       </c>
       <c r="C493" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="B494" s="27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C494" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="B495" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C495" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="496" spans="1:3">
-      <c r="B496" s="39" t="s">
-        <v>476</v>
+      <c r="B496" s="37" t="s">
+        <v>474</v>
       </c>
       <c r="C496" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="B497" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C497" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="B498" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C498" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="B499" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="B500" s="41" t="s">
-        <v>578</v>
+      <c r="B500" s="38" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="19.5">
       <c r="A504" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B504" s="36" t="s">
-        <v>481</v>
+        <v>505</v>
+      </c>
+      <c r="B504" s="41" t="s">
+        <v>479</v>
       </c>
       <c r="C504" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="19.5">
       <c r="A505" s="5"/>
-      <c r="B505" s="28" t="s">
-        <v>482</v>
+      <c r="B505" s="35" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="506" spans="1:3">
-      <c r="B506" s="28" t="s">
-        <v>483</v>
+      <c r="B506" s="35" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="B507" s="28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="B508" s="35" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="B509" s="36" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
-      <c r="B508" s="28" t="s">
+    <row r="510" spans="1:3">
+      <c r="B510" s="35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="B511" s="35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="B512" s="35" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="B513" s="18" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="509" spans="1:3">
-      <c r="B509" s="38" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
-      <c r="B510" s="28" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
-      <c r="B511" s="37" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="B512" s="28" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
-      <c r="B513" s="37" t="s">
-        <v>504</v>
+      <c r="C513" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="514" spans="1:3">
-      <c r="B514" s="18" t="s">
-        <v>487</v>
+      <c r="B514" s="35" t="s">
+        <v>489</v>
       </c>
       <c r="C514" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="515" spans="1:3">
-      <c r="B515" s="37" t="s">
-        <v>492</v>
+      <c r="B515" s="27" t="s">
+        <v>499</v>
       </c>
       <c r="C515" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="516" spans="1:3">
-      <c r="B516" s="27" t="s">
-        <v>502</v>
+      <c r="A516" t="s">
+        <v>576</v>
+      </c>
+      <c r="B516" s="35" t="s">
+        <v>494</v>
       </c>
       <c r="C516" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="517" spans="1:3">
-      <c r="A517" t="s">
-        <v>580</v>
-      </c>
-      <c r="B517" s="28" t="s">
-        <v>497</v>
+      <c r="B517" s="27" t="s">
+        <v>500</v>
       </c>
       <c r="C517" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="B518" s="27" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C518" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="519" spans="1:3">
-      <c r="B519" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="C519" t="s">
-        <v>577</v>
+      <c r="B519" s="17" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="B520" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="B521" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="522" spans="1:3">
-      <c r="B522" s="17" t="s">
-        <v>496</v>
+      <c r="B522" s="18" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="523" spans="1:3">
-      <c r="B523" s="18" t="s">
-        <v>489</v>
+      <c r="B523" s="17" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="B524" s="17" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="B525" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="B526" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="527" spans="1:3">
-      <c r="B527" s="17" t="s">
-        <v>500</v>
+      <c r="B527" s="23" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="528" spans="1:3">
-      <c r="B528" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3">
-      <c r="B529" s="29" t="s">
-        <v>505</v>
+      <c r="B528" s="29" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="B532" s="21" t="s">
-        <v>544</v>
+        <v>567</v>
+      </c>
+      <c r="B532" s="40" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="B533" s="21" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="B534" s="21" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="535" spans="1:3">
-      <c r="B535" s="21" t="s">
-        <v>547</v>
+      <c r="B535" s="18" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="536" spans="1:3">
-      <c r="B536" s="21" t="s">
-        <v>548</v>
+      <c r="B536" s="28" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="B537" s="24" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="B538" s="21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C538" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="B539" s="28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="B540" s="21" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="B541" s="21" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="B542" s="21" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="B543" s="22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="B544" s="18" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="B545" s="27" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="B546" s="21" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C546" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="B547" s="24" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="B548" s="21" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="B549" s="24" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="B550" s="24" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="B551" s="28" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="B552" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="B553" s="28" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="B554" s="18" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="B555" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="B556" s="21" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="B557" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="20" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B559" s="18" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="20"/>
       <c r="B560" s="16" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="561" spans="2:2">
       <c r="B561" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="562" spans="2:2">
       <c r="B562" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" s="18" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="564" spans="2:2">
       <c r="B564" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="565" spans="2:2">
       <c r="B565" s="16" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="566" spans="2:2">
       <c r="B566" s="16" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="567" spans="2:2">
       <c r="B567" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="568" spans="2:2">
       <c r="B568" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="570" spans="2:2">
       <c r="B570" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="571" spans="2:2">
       <c r="B571" s="16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" s="18" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="573" spans="2:2">
       <c r="B573" s="18" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="574" spans="2:2">
       <c r="B574" s="18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" s="16" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="576" spans="2:2">
       <c r="B576" s="16" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="577" spans="2:2">
       <c r="B577" s="16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="578" spans="2:2">
       <c r="B578" s="16" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="579" spans="2:2">
       <c r="B579" s="16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="580" spans="2:2">
       <c r="B580" s="16" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="581" spans="2:2">
       <c r="B581" s="16" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="582" spans="2:2">
       <c r="B582" s="16" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="583" spans="2:2">
       <c r="B583" s="16" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="584" spans="2:2">
       <c r="B584" s="16" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="585" spans="2:2">
       <c r="B585" s="16" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="586" spans="2:2">
       <c r="B586" s="16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="587" spans="2:2">
       <c r="B587" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="617" spans="2:2">
@@ -8032,13 +8063,13 @@
     <hyperlink ref="B12" r:id="rId7"/>
     <hyperlink ref="B13" r:id="rId8"/>
     <hyperlink ref="B14" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
     <hyperlink ref="B16" r:id="rId11"/>
     <hyperlink ref="B17" r:id="rId12"/>
     <hyperlink ref="B18" r:id="rId13"/>
     <hyperlink ref="B19" r:id="rId14"/>
     <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId16" display="Count Inversion"/>
     <hyperlink ref="B22" r:id="rId17"/>
     <hyperlink ref="B23" r:id="rId18"/>
     <hyperlink ref="B24" r:id="rId19"/>
@@ -8490,23 +8521,23 @@
     <hyperlink ref="B507" r:id="rId465"/>
     <hyperlink ref="B508" r:id="rId466"/>
     <hyperlink ref="B509" r:id="rId467"/>
-    <hyperlink ref="B514" r:id="rId468"/>
+    <hyperlink ref="B513" r:id="rId468"/>
     <hyperlink ref="B510" r:id="rId469"/>
-    <hyperlink ref="B523" r:id="rId470"/>
-    <hyperlink ref="B515" r:id="rId471"/>
-    <hyperlink ref="B524" r:id="rId472"/>
-    <hyperlink ref="B520" r:id="rId473"/>
-    <hyperlink ref="B521" r:id="rId474"/>
-    <hyperlink ref="B522" r:id="rId475"/>
-    <hyperlink ref="B517" r:id="rId476"/>
-    <hyperlink ref="B525" r:id="rId477"/>
-    <hyperlink ref="B526" r:id="rId478"/>
-    <hyperlink ref="B527" r:id="rId479"/>
-    <hyperlink ref="B519" r:id="rId480"/>
-    <hyperlink ref="B516" r:id="rId481"/>
-    <hyperlink ref="B518" r:id="rId482"/>
-    <hyperlink ref="B513" r:id="rId483"/>
-    <hyperlink ref="B529" r:id="rId484"/>
+    <hyperlink ref="B522" r:id="rId470"/>
+    <hyperlink ref="B514" r:id="rId471"/>
+    <hyperlink ref="B523" r:id="rId472"/>
+    <hyperlink ref="B519" r:id="rId473"/>
+    <hyperlink ref="B520" r:id="rId474"/>
+    <hyperlink ref="B521" r:id="rId475"/>
+    <hyperlink ref="B516" r:id="rId476"/>
+    <hyperlink ref="B524" r:id="rId477"/>
+    <hyperlink ref="B525" r:id="rId478"/>
+    <hyperlink ref="B526" r:id="rId479"/>
+    <hyperlink ref="B518" r:id="rId480"/>
+    <hyperlink ref="B515" r:id="rId481"/>
+    <hyperlink ref="B517" r:id="rId482"/>
+    <hyperlink ref="B512" r:id="rId483"/>
+    <hyperlink ref="B528" r:id="rId484"/>
     <hyperlink ref="B511" r:id="rId485"/>
     <hyperlink ref="B559" r:id="rId486"/>
     <hyperlink ref="B560" r:id="rId487"/>
@@ -8569,13 +8600,15 @@
     <hyperlink ref="B556" r:id="rId544"/>
     <hyperlink ref="B557" r:id="rId545"/>
     <hyperlink ref="B543" r:id="rId546"/>
-    <hyperlink ref="B528" r:id="rId547"/>
-    <hyperlink ref="B512" r:id="rId548"/>
-    <hyperlink ref="B399" r:id="rId549"/>
-    <hyperlink ref="B400" r:id="rId550"/>
-    <hyperlink ref="B500" r:id="rId551"/>
+    <hyperlink ref="B527" r:id="rId547"/>
+    <hyperlink ref="B399" r:id="rId548"/>
+    <hyperlink ref="B400" r:id="rId549"/>
+    <hyperlink ref="B500" r:id="rId550"/>
+    <hyperlink ref="D72" r:id="rId551"/>
+    <hyperlink ref="D70" r:id="rId552"/>
+    <hyperlink ref="D71" r:id="rId553"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId552"/>
+  <pageSetup orientation="portrait" r:id="rId554"/>
 </worksheet>
 </file>